--- a/sriramModel-nelson-atypical-patientID_49-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_49-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.013440337546541</v>
+        <v>3.013518074108538</v>
       </c>
       <c r="C2">
-        <v>3.010558704471026</v>
+        <v>3.015395133219223</v>
       </c>
       <c r="D2">
-        <v>3.015679640171137</v>
+        <v>3.015353598696183</v>
       </c>
       <c r="E2">
-        <v>3.014970737991457</v>
+        <v>3.016520433013032</v>
       </c>
       <c r="F2">
-        <v>3.012787233342243</v>
+        <v>3.014282809965797</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.025513900454196</v>
+        <v>3.02648165960632</v>
       </c>
       <c r="C3">
-        <v>3.020688344234669</v>
+        <v>3.029343433705221</v>
       </c>
       <c r="D3">
-        <v>3.030983228577306</v>
+        <v>3.029582655680727</v>
       </c>
       <c r="E3">
-        <v>3.029253484419697</v>
+        <v>3.031749106369905</v>
       </c>
       <c r="F3">
-        <v>3.024655680174567</v>
+        <v>3.027711920580376</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.03632429644022</v>
+        <v>3.038944859946942</v>
       </c>
       <c r="C4">
-        <v>3.030423056641835</v>
+        <v>3.041968536370147</v>
       </c>
       <c r="D4">
-        <v>3.045950502340906</v>
+        <v>3.042788183295151</v>
       </c>
       <c r="E4">
-        <v>3.04288970606698</v>
+        <v>3.04579536641643</v>
       </c>
       <c r="F4">
-        <v>3.035712879447498</v>
+        <v>3.040367696529955</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.045969900577396</v>
+        <v>3.050958988533439</v>
       </c>
       <c r="C5">
-        <v>3.039795657142661</v>
+        <v>3.053387575106556</v>
       </c>
       <c r="D5">
-        <v>3.060617859356568</v>
+        <v>3.055065748967044</v>
       </c>
       <c r="E5">
-        <v>3.055918864250898</v>
+        <v>3.058762782074569</v>
       </c>
       <c r="F5">
-        <v>3.046059008297747</v>
+        <v>3.052326205226721</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.0545441148234</v>
+        <v>3.062572651802558</v>
       </c>
       <c r="C6">
-        <v>3.048837232668673</v>
+        <v>3.063711893948581</v>
       </c>
       <c r="D6">
-        <v>3.075018532047066</v>
+        <v>3.066506113415409</v>
       </c>
       <c r="E6">
-        <v>3.068378351504223</v>
+        <v>3.070749624128026</v>
       </c>
       <c r="F6">
-        <v>3.055787328643926</v>
+        <v>3.063659409247137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.062135660730282</v>
+        <v>3.073831993054266</v>
       </c>
       <c r="C7">
-        <v>3.057577322213009</v>
+        <v>3.073047276177336</v>
       </c>
       <c r="D7">
-        <v>3.089182854473573</v>
+        <v>3.077195431383474</v>
       </c>
       <c r="E7">
-        <v>3.080303549138234</v>
+        <v>3.081849235906556</v>
       </c>
       <c r="F7">
-        <v>3.064984596370708</v>
+        <v>3.074435705529603</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.068828820317252</v>
+        <v>3.084780872212926</v>
       </c>
       <c r="C8">
-        <v>3.066044098048698</v>
+        <v>3.081494019981302</v>
       </c>
       <c r="D8">
-        <v>3.103138443344619</v>
+        <v>3.087215256329501</v>
       </c>
       <c r="E8">
-        <v>3.091727976718006</v>
+        <v>3.092150060556584</v>
       </c>
       <c r="F8">
-        <v>3.073731356270824</v>
+        <v>3.084719789186397</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.074703634096749</v>
+        <v>3.095460848037996</v>
       </c>
       <c r="C9">
-        <v>3.074264360550441</v>
+        <v>3.089147432094985</v>
       </c>
       <c r="D9">
-        <v>3.116910340355531</v>
+        <v>3.096642985412629</v>
       </c>
       <c r="E9">
-        <v>3.102683456780718</v>
+        <v>3.101736019150625</v>
       </c>
       <c r="F9">
-        <v>3.082102249519591</v>
+        <v>3.094572909007596</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.079836128943794</v>
+        <v>3.105911335802669</v>
       </c>
       <c r="C10">
-        <v>3.082263619045558</v>
+        <v>3.096098047186214</v>
       </c>
       <c r="D10">
-        <v>3.130521161104471</v>
+        <v>3.105552058781447</v>
       </c>
       <c r="E10">
-        <v>3.113200171585551</v>
+        <v>3.110686784896597</v>
       </c>
       <c r="F10">
-        <v>3.090166285847581</v>
+        <v>3.104053127063625</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.084298514879671</v>
+        <v>3.116169750525975</v>
       </c>
       <c r="C11">
-        <v>3.090066092698744</v>
+        <v>3.102431810799333</v>
       </c>
       <c r="D11">
-        <v>3.143991254259053</v>
+        <v>3.114012107934374</v>
       </c>
       <c r="E11">
-        <v>3.123306721217558</v>
+        <v>3.119077944083057</v>
       </c>
       <c r="F11">
-        <v>3.097987031383794</v>
+        <v>3.113215459986314</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.088159371980316</v>
+        <v>3.126271608756893</v>
       </c>
       <c r="C12">
-        <v>3.097694829168445</v>
+        <v>3.108230290910841</v>
       </c>
       <c r="D12">
-        <v>3.157338816725086</v>
+        <v>3.122089123412159</v>
       </c>
       <c r="E12">
-        <v>3.13303020744458</v>
+        <v>3.126981167143913</v>
       </c>
       <c r="F12">
-        <v>3.105623059600033</v>
+        <v>3.122111997271168</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.091483815236032</v>
+        <v>3.136250598673508</v>
       </c>
       <c r="C13">
-        <v>3.105171758803871</v>
+        <v>3.113570920430559</v>
       </c>
       <c r="D13">
-        <v>3.170579984342973</v>
+        <v>3.129845661955602</v>
       </c>
       <c r="E13">
-        <v>3.142396336736046</v>
+        <v>3.134464424253955</v>
       </c>
       <c r="F13">
-        <v>3.113128156636554</v>
+        <v>3.130792025247042</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.094333672039532</v>
+        <v>3.146138657224978</v>
       </c>
       <c r="C14">
-        <v>3.112517739621555</v>
+        <v>3.118527207449123</v>
       </c>
       <c r="D14">
-        <v>3.183729033745381</v>
+        <v>3.137341024931685</v>
       </c>
       <c r="E14">
-        <v>3.151429427280961</v>
+        <v>3.141592182289902</v>
       </c>
       <c r="F14">
-        <v>3.120551474279939</v>
+        <v>3.139302185960664</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.09676765935992</v>
+        <v>3.155966073181113</v>
       </c>
       <c r="C15">
-        <v>3.119752545981474</v>
+        <v>3.123168920817303</v>
       </c>
       <c r="D15">
-        <v>3.196798469913062</v>
+        <v>3.144631416361921</v>
       </c>
       <c r="E15">
-        <v>3.160152596803407</v>
+        <v>3.148425577443998</v>
       </c>
       <c r="F15">
-        <v>3.127937802905998</v>
+        <v>3.147686610858134</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.09884153152565</v>
+        <v>3.165761571446615</v>
       </c>
       <c r="C16">
-        <v>3.126894988036899</v>
+        <v>3.127562271342826</v>
       </c>
       <c r="D16">
-        <v>3.209799148562597</v>
+        <v>3.151770091126527</v>
       </c>
       <c r="E16">
-        <v>3.168587551662119</v>
+        <v>3.155022574300953</v>
       </c>
       <c r="F16">
-        <v>3.135327822952867</v>
+        <v>3.155987040247181</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.100608213882833</v>
+        <v>3.175552389684829</v>
       </c>
       <c r="C17">
-        <v>3.133962925691376</v>
+        <v>3.131770117388257</v>
       </c>
       <c r="D17">
-        <v>3.222740402293141</v>
+        <v>3.158807520122772</v>
       </c>
       <c r="E17">
-        <v>3.176754967119074</v>
+        <v>3.161438134463267</v>
       </c>
       <c r="F17">
-        <v>3.142758316080807</v>
+        <v>3.164242933417313</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.102117938058148</v>
+        <v>3.185364349375574</v>
       </c>
       <c r="C18">
-        <v>3.140973311870148</v>
+        <v>3.135852037739329</v>
       </c>
       <c r="D18">
-        <v>3.235630090828828</v>
+        <v>3.165791483825601</v>
       </c>
       <c r="E18">
-        <v>3.18467440151028</v>
+        <v>3.167724352070615</v>
       </c>
       <c r="F18">
-        <v>3.150262356376085</v>
+        <v>3.17249157884627</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.10341837347342</v>
+        <v>3.195221924901449</v>
       </c>
       <c r="C19">
-        <v>3.147942257003694</v>
+        <v>3.139864541258683</v>
       </c>
       <c r="D19">
-        <v>3.248474707965903</v>
+        <v>3.172767282651512</v>
       </c>
       <c r="E19">
-        <v>3.192364423391417</v>
+        <v>3.173930614417594</v>
       </c>
       <c r="F19">
-        <v>3.157869508660202</v>
+        <v>3.180768223025914</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.104554757572453</v>
+        <v>3.205148309389708</v>
       </c>
       <c r="C20">
-        <v>3.154885032231275</v>
+        <v>3.143861262821278</v>
       </c>
       <c r="D20">
-        <v>3.26127946777665</v>
+        <v>3.179777666063276</v>
       </c>
       <c r="E20">
-        <v>3.199842569031737</v>
+        <v>3.180103607805517</v>
       </c>
       <c r="F20">
-        <v>3.165606023740218</v>
+        <v>3.189106078412319</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.105570015944301</v>
+        <v>3.215165502078241</v>
       </c>
       <c r="C21">
-        <v>3.161816125050076</v>
+        <v>3.147892999890461</v>
       </c>
       <c r="D21">
-        <v>3.274048399630743</v>
+        <v>3.18686322243214</v>
       </c>
       <c r="E21">
-        <v>3.207125405294696</v>
+        <v>3.186287675077033</v>
       </c>
       <c r="F21">
-        <v>3.173495019266494</v>
+        <v>3.197536502145535</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.1065048694437</v>
+        <v>3.225294298219573</v>
       </c>
       <c r="C22">
-        <v>3.168749258156983</v>
+        <v>3.152008018429656</v>
       </c>
       <c r="D22">
-        <v>3.286784428095098</v>
+        <v>3.194062318830951</v>
       </c>
       <c r="E22">
-        <v>3.214228591776746</v>
+        <v>3.192524748291028</v>
       </c>
       <c r="F22">
-        <v>3.181556641783407</v>
+        <v>3.206089046235527</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.107397931396257</v>
+        <v>3.235554412047664</v>
       </c>
       <c r="C23">
-        <v>3.1756974324653</v>
+        <v>3.156252047591812</v>
       </c>
       <c r="D23">
-        <v>3.299489434681137</v>
+        <v>3.20141130383476</v>
       </c>
       <c r="E23">
-        <v>3.221166916110081</v>
+        <v>3.198854622802497</v>
       </c>
       <c r="F23">
-        <v>3.189808274976007</v>
+        <v>3.214791521024639</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.108285816591858</v>
+        <v>3.245964480369085</v>
       </c>
       <c r="C24">
-        <v>3.182672957588769</v>
+        <v>3.160668470083606</v>
       </c>
       <c r="D24">
-        <v>3.312164376315456</v>
+        <v>3.208944558800356</v>
       </c>
       <c r="E24">
-        <v>3.227954363579131</v>
+        <v>3.205314961192093</v>
       </c>
       <c r="F24">
-        <v>3.198264612491495</v>
+        <v>3.223670161575989</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.109203227905932</v>
+        <v>3.256542206488172</v>
       </c>
       <c r="C25">
-        <v>3.189687486576334</v>
+        <v>3.165298370210742</v>
       </c>
       <c r="D25">
-        <v>3.32480928606808</v>
+        <v>3.216694614843888</v>
       </c>
       <c r="E25">
-        <v>3.234604144715533</v>
+        <v>3.211941452882108</v>
       </c>
       <c r="F25">
-        <v>3.206937965017151</v>
+        <v>3.232749626255419</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.110183050057692</v>
+        <v>3.267304334979024</v>
       </c>
       <c r="C26">
-        <v>3.196752042995556</v>
+        <v>3.170180679687227</v>
       </c>
       <c r="D26">
-        <v>3.337423400609033</v>
+        <v>3.224692209391</v>
       </c>
       <c r="E26">
-        <v>3.2411287304025</v>
+        <v>3.218767851807627</v>
       </c>
       <c r="F26">
-        <v>3.215838233621469</v>
+        <v>3.242053093283818</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.111256434887675</v>
+        <v>3.278266726041184</v>
       </c>
       <c r="C27">
-        <v>3.203877048575943</v>
+        <v>3.175352277703337</v>
       </c>
       <c r="D27">
-        <v>3.350005206672977</v>
+        <v>3.232966388953184</v>
       </c>
       <c r="E27">
-        <v>3.247539887259276</v>
+        <v>3.225826103908275</v>
       </c>
       <c r="F27">
-        <v>3.224973143358304</v>
+        <v>3.251602293148976</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.112452885719325</v>
+        <v>3.289444366296169</v>
       </c>
       <c r="C28">
-        <v>3.211072350675734</v>
+        <v>3.180848105325902</v>
       </c>
       <c r="D28">
-        <v>3.362552427940787</v>
+        <v>3.241544596826714</v>
       </c>
       <c r="E28">
-        <v>3.253848701424077</v>
+        <v>3.233146431870978</v>
       </c>
       <c r="F28">
-        <v>3.234348319227269</v>
+        <v>3.261417592938118</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.113800324328422</v>
+        <v>3.300851426480195</v>
       </c>
       <c r="C29">
-        <v>3.218347243049221</v>
+        <v>3.186701250294924</v>
       </c>
       <c r="D29">
-        <v>3.375062222539403</v>
+        <v>3.250452761788091</v>
       </c>
       <c r="E29">
-        <v>3.260065616348862</v>
+        <v>3.240757435478761</v>
       </c>
       <c r="F29">
-        <v>3.243967461326802</v>
+        <v>3.271518021303821</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.11532516283052</v>
+        <v>3.31250130787012</v>
       </c>
       <c r="C30">
-        <v>3.225710492175563</v>
+        <v>3.192943055253856</v>
       </c>
       <c r="D30">
-        <v>3.387531044081251</v>
+        <v>3.25971536113613</v>
       </c>
       <c r="E30">
-        <v>3.266200461826361</v>
+        <v>3.248686160423826</v>
       </c>
       <c r="F30">
-        <v>3.253832449131877</v>
+        <v>3.281921347192215</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.117052375468486</v>
+        <v>3.324406678315566</v>
       </c>
       <c r="C31">
-        <v>3.233170360022746</v>
+        <v>3.199603189427843</v>
       </c>
       <c r="D31">
-        <v>3.399954882127733</v>
+        <v>3.269355512377763</v>
       </c>
       <c r="E31">
-        <v>3.272262484694575</v>
+        <v>3.256958196645111</v>
       </c>
       <c r="F31">
-        <v>3.2639434706993</v>
+        <v>3.292644128080458</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.119005552737633</v>
+        <v>3.336579516361917</v>
       </c>
       <c r="C32">
-        <v>3.240734624738564</v>
+        <v>3.206709730812332</v>
       </c>
       <c r="D32">
-        <v>3.412329146471612</v>
+        <v>3.279395020928991</v>
       </c>
       <c r="E32">
-        <v>3.278260365077727</v>
+        <v>3.26559773176336</v>
       </c>
       <c r="F32">
-        <v>3.274299118419503</v>
+        <v>3.303701742718415</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.121206964667371</v>
+        <v>3.349031138091035</v>
       </c>
       <c r="C33">
-        <v>3.248410601066935</v>
+        <v>3.214289253035548</v>
       </c>
       <c r="D33">
-        <v>3.424648833463697</v>
+        <v>3.289854453796626</v>
       </c>
       <c r="E33">
-        <v>3.28420226226877</v>
+        <v>3.274627633555982</v>
       </c>
       <c r="F33">
-        <v>3.284896505913888</v>
+        <v>3.315108455134595</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.12367761695835</v>
+        <v>3.361772232322584</v>
       </c>
       <c r="C34">
-        <v>3.256205160706386</v>
+        <v>3.222366885770495</v>
       </c>
       <c r="D34">
-        <v>3.436908486360247</v>
+        <v>3.300753198591252</v>
       </c>
       <c r="E34">
-        <v>3.290095801784882</v>
+        <v>3.284069509792766</v>
       </c>
       <c r="F34">
-        <v>3.295731347503915</v>
+        <v>3.326877427531051</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.126437296374802</v>
+        <v>3.374812886969522</v>
       </c>
       <c r="C35">
-        <v>3.26412474839545</v>
+        <v>3.230966393036267</v>
       </c>
       <c r="D35">
-        <v>3.449102285998249</v>
+        <v>3.312109513289112</v>
       </c>
       <c r="E35">
-        <v>3.295948141166429</v>
+        <v>3.29394376778545</v>
       </c>
       <c r="F35">
-        <v>3.306798063361129</v>
+        <v>3.339020773260186</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.129504616653011</v>
+        <v>3.388162618177328</v>
       </c>
       <c r="C36">
-        <v>3.272175398503322</v>
+        <v>3.240110243326184</v>
       </c>
       <c r="D36">
-        <v>3.461224061265644</v>
+        <v>3.323940590929008</v>
       </c>
       <c r="E36">
-        <v>3.301765934562382</v>
+        <v>3.304269683234256</v>
       </c>
       <c r="F36">
-        <v>3.318089873447049</v>
+        <v>3.351549571461568</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.13289706311453</v>
+        <v>3.401830398280481</v>
       </c>
       <c r="C37">
-        <v>3.280362751467663</v>
+        <v>3.249819668257302</v>
       </c>
       <c r="D37">
-        <v>3.473267327304383</v>
+        <v>3.336262606294599</v>
       </c>
       <c r="E37">
-        <v>3.307555402598946</v>
+        <v>3.315065452076149</v>
       </c>
       <c r="F37">
-        <v>3.329598884250626</v>
+        <v>3.364473898924234</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.136631026818001</v>
+        <v>3.415824687021897</v>
       </c>
       <c r="C38">
-        <v>3.288692066971294</v>
+        <v>3.260114723363746</v>
       </c>
       <c r="D38">
-        <v>3.485225338940001</v>
+        <v>3.349090764529544</v>
       </c>
       <c r="E38">
-        <v>3.313322298641181</v>
+        <v>3.32634824539644</v>
       </c>
       <c r="F38">
-        <v>3.341316167064158</v>
+        <v>3.377802862988032</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.140721836215662</v>
+        <v>3.430153444877053</v>
       </c>
       <c r="C39">
-        <v>3.297168236513426</v>
+        <v>3.271014351663966</v>
       </c>
       <c r="D39">
-        <v>3.49709107345778</v>
+        <v>3.362439354156133</v>
       </c>
       <c r="E39">
-        <v>3.319071960964014</v>
+        <v>3.338134267477737</v>
       </c>
       <c r="F39">
-        <v>3.353231842676175</v>
+        <v>3.391544609952832</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.145183787094656</v>
+        <v>3.444824175824003</v>
       </c>
       <c r="C40">
-        <v>3.30579579542308</v>
+        <v>3.282536428307676</v>
       </c>
       <c r="D40">
-        <v>3.508857326441179</v>
+        <v>3.37632178277075</v>
       </c>
       <c r="E40">
-        <v>3.32480929245212</v>
+        <v>3.350438796868343</v>
       </c>
       <c r="F40">
-        <v>3.365335151396278</v>
+        <v>3.405706353866378</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.150030167267517</v>
+        <v>3.459843929414981</v>
       </c>
       <c r="C41">
-        <v>3.314578933287855</v>
+        <v>3.294697813381984</v>
       </c>
       <c r="D41">
-        <v>3.520516660978749</v>
+        <v>3.390750619521475</v>
       </c>
       <c r="E41">
-        <v>3.330538795461671</v>
+        <v>3.36327623389432</v>
       </c>
       <c r="F41">
-        <v>3.377614520390274</v>
+        <v>3.42029438732702</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.155273268775614</v>
+        <v>3.475219329226698</v>
       </c>
       <c r="C42">
-        <v>3.323521500743154</v>
+        <v>3.307514405040494</v>
       </c>
       <c r="D42">
-        <v>3.532061511335655</v>
+        <v>3.405737639504344</v>
       </c>
       <c r="E42">
-        <v>3.33626455524712</v>
+        <v>3.376660150556965</v>
       </c>
       <c r="F42">
-        <v>3.390057635743323</v>
+        <v>3.43531408588477</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.160924400762065</v>
+        <v>3.49095660031813</v>
       </c>
       <c r="C43">
-        <v>3.332627016297897</v>
+        <v>3.321001177847045</v>
       </c>
       <c r="D43">
-        <v>3.543484136100138</v>
+        <v>3.421293847768328</v>
       </c>
       <c r="E43">
-        <v>3.34199026541032</v>
+        <v>3.390603321217502</v>
       </c>
       <c r="F43">
-        <v>3.402651503465144</v>
+        <v>3.450769930922729</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.166993901398872</v>
+        <v>3.50706155671821</v>
       </c>
       <c r="C44">
-        <v>3.341898672936838</v>
+        <v>3.335172228083331</v>
       </c>
       <c r="D44">
-        <v>3.554776700356423</v>
+        <v>3.437429521719137</v>
       </c>
       <c r="E44">
-        <v>3.34771920904764</v>
+        <v>3.405117768176405</v>
       </c>
       <c r="F44">
-        <v>3.415382507935999</v>
+        <v>3.466665494133783</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.17349112628043</v>
+        <v>3.523539663307917</v>
       </c>
       <c r="C45">
-        <v>3.351339337325746</v>
+        <v>3.350040817391819</v>
       </c>
       <c r="D45">
-        <v>3.565931255553924</v>
+        <v>3.454154240322251</v>
       </c>
       <c r="E45">
-        <v>3.353454274742493</v>
+        <v>3.420214797741727</v>
       </c>
       <c r="F45">
-        <v>3.428236471450014</v>
+        <v>3.48300345241278</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.180424441219769</v>
+        <v>3.540396000568876</v>
       </c>
       <c r="C46">
-        <v>3.360951549407579</v>
+        <v>3.365619403040835</v>
       </c>
       <c r="D46">
-        <v>3.576939779749234</v>
+        <v>3.471476909182309</v>
       </c>
       <c r="E46">
-        <v>3.359197946850209</v>
+        <v>3.435905029838007</v>
       </c>
       <c r="F46">
-        <v>3.441198708472909</v>
+        <v>3.499785579646235</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.18780121148055</v>
+        <v>3.557635305921245</v>
       </c>
       <c r="C47">
-        <v>3.370737522848198</v>
+        <v>3.381919674000815</v>
       </c>
       <c r="D47">
-        <v>3.587794195240062</v>
+        <v>3.489405792436524</v>
       </c>
       <c r="E47">
-        <v>3.364952284127179</v>
+        <v>3.452198434906521</v>
       </c>
       <c r="F47">
-        <v>3.45425407173426</v>
+        <v>3.517012733894329</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.195627764184706</v>
+        <v>3.575261973852368</v>
       </c>
       <c r="C48">
-        <v>3.380699136050939</v>
+        <v>3.398952586576032</v>
       </c>
       <c r="D48">
-        <v>3.598486371578575</v>
+        <v>3.507948531972573</v>
       </c>
       <c r="E48">
-        <v>3.370718916772895</v>
+        <v>3.46910435986199</v>
       </c>
       <c r="F48">
-        <v>3.467387002539412</v>
+        <v>3.534684861124459</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.203909348312118</v>
+        <v>3.593280069600362</v>
       </c>
       <c r="C49">
-        <v>3.390837919694463</v>
+        <v>3.416728385575551</v>
       </c>
       <c r="D49">
-        <v>3.609008168430769</v>
+        <v>3.527112166784978</v>
       </c>
       <c r="E49">
-        <v>3.376499029628122</v>
+        <v>3.48663155281402</v>
       </c>
       <c r="F49">
-        <v>3.480581576787808</v>
+        <v>3.552800962522961</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.212650090997481</v>
+        <v>3.611693337753836</v>
       </c>
       <c r="C50">
-        <v>3.40115504509354</v>
+        <v>3.435256632378379</v>
       </c>
       <c r="D50">
-        <v>3.619351413791656</v>
+        <v>3.546903157977806</v>
       </c>
       <c r="E50">
-        <v>3.382293343431622</v>
+        <v>3.50478819271553</v>
       </c>
       <c r="F50">
-        <v>3.493821541830141</v>
+        <v>3.571359085948245</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.221852931259061</v>
+        <v>3.630505201452689</v>
       </c>
       <c r="C51">
-        <v>3.411651302519162</v>
+        <v>3.45454623135732</v>
       </c>
       <c r="D51">
-        <v>3.629507962089113</v>
+        <v>3.567327395831011</v>
       </c>
       <c r="E51">
-        <v>3.38810208272229</v>
+        <v>3.523581904103243</v>
       </c>
       <c r="F51">
-        <v>3.507090357973317</v>
+        <v>3.590356301187491</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.231519520355296</v>
+        <v>3.649718764474197</v>
       </c>
       <c r="C52">
-        <v>3.422327068387814</v>
+        <v>3.474605441317194</v>
       </c>
       <c r="D52">
-        <v>3.639469668380264</v>
+        <v>3.588390213891608</v>
       </c>
       <c r="E52">
-        <v>3.393924956665781</v>
+        <v>3.543019774596636</v>
       </c>
       <c r="F52">
-        <v>3.520371239483749</v>
+        <v>3.609788658798791</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.241708788894683</v>
+        <v>3.669336811245765</v>
       </c>
       <c r="C53">
-        <v>3.433218725584314</v>
+        <v>3.49544189225571</v>
       </c>
       <c r="D53">
-        <v>3.649254970844765</v>
+        <v>3.610096403961829</v>
       </c>
       <c r="E53">
-        <v>3.399818619220542</v>
+        <v>3.563108375907875</v>
       </c>
       <c r="F53">
-        <v>3.533676360741499</v>
+        <v>3.62965117588826</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.252705059958431</v>
+        <v>3.689361791421325</v>
       </c>
       <c r="C54">
-        <v>3.44450139243787</v>
+        <v>3.517062601508334</v>
       </c>
       <c r="D54">
-        <v>3.658982734546336</v>
+        <v>3.632450209604471</v>
       </c>
       <c r="E54">
-        <v>3.406061070143698</v>
+        <v>3.583853763428371</v>
       </c>
       <c r="F54">
-        <v>3.547127198289764</v>
+        <v>3.649937775026431</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.26482952627013</v>
+        <v>3.709795819693542</v>
       </c>
       <c r="C55">
-        <v>3.456375889890988</v>
+        <v>3.539473969603329</v>
       </c>
       <c r="D55">
-        <v>3.668783069744333</v>
+        <v>3.655455334063411</v>
       </c>
       <c r="E55">
-        <v>3.412965831635971</v>
+        <v>3.605261484093684</v>
       </c>
       <c r="F55">
-        <v>3.560858474525515</v>
+        <v>3.670641248950933</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.278379493944438</v>
+        <v>3.730640653126989</v>
       </c>
       <c r="C56">
-        <v>3.469030239058102</v>
+        <v>3.562681782438986</v>
       </c>
       <c r="D56">
-        <v>3.678770321342276</v>
+        <v>3.679114934844414</v>
       </c>
       <c r="E56">
-        <v>3.420823367754563</v>
+        <v>3.627336584067578</v>
       </c>
       <c r="F56">
-        <v>3.574987250586751</v>
+        <v>3.691753213233572</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.293628243488759</v>
+        <v>3.751897663614513</v>
       </c>
       <c r="C57">
-        <v>3.482640284379659</v>
+        <v>3.586691214491335</v>
       </c>
       <c r="D57">
-        <v>3.689044175302427</v>
+        <v>3.703431603700599</v>
       </c>
       <c r="E57">
-        <v>3.42990193915358</v>
+        <v>3.650083584806923</v>
       </c>
       <c r="F57">
-        <v>3.589614559576408</v>
+        <v>3.713264027005933</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.310824536584359</v>
+        <v>3.773567824091656</v>
       </c>
       <c r="C58">
-        <v>3.497369749866511</v>
+        <v>3.611506795241569</v>
       </c>
       <c r="D58">
-        <v>3.699690617708668</v>
+        <v>3.728407367577934</v>
       </c>
       <c r="E58">
-        <v>3.440448032632625</v>
+        <v>3.673506469906601</v>
       </c>
       <c r="F58">
-        <v>3.604826248883658</v>
+        <v>3.735162760496473</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.330191861693885</v>
+        <v>3.795651645913157</v>
       </c>
       <c r="C59">
-        <v>3.513370139835768</v>
+        <v>3.63713238857165</v>
       </c>
       <c r="D59">
-        <v>3.710782776133871</v>
+        <v>3.754043637520084</v>
       </c>
       <c r="E59">
-        <v>3.4526864990636</v>
+        <v>3.697608655625361</v>
       </c>
       <c r="F59">
-        <v>3.620693774722309</v>
+        <v>3.757437082100682</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.351927321049132</v>
+        <v>3.818149135084146</v>
       </c>
       <c r="C60">
-        <v>3.530780478651737</v>
+        <v>3.663571153174983</v>
       </c>
       <c r="D60">
-        <v>3.722381728628436</v>
+        <v>3.780341180649609</v>
       </c>
       <c r="E60">
-        <v>3.466820390973296</v>
+        <v>3.722392948354922</v>
       </c>
       <c r="F60">
-        <v>3.637275103715504</v>
+        <v>3.780073194470626</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.376200217302249</v>
+        <v>3.841059743079808</v>
       </c>
       <c r="C61">
-        <v>3.549726871717639</v>
+        <v>3.690825486588934</v>
       </c>
       <c r="D61">
-        <v>3.734537323684712</v>
+        <v>3.80730006950095</v>
       </c>
       <c r="E61">
-        <v>3.48303052828529</v>
+        <v>3.747861484709004</v>
       </c>
       <c r="F61">
-        <v>3.654615532027452</v>
+        <v>3.803055741619736</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.403150298947145</v>
+        <v>3.864382252683191</v>
       </c>
       <c r="C62">
-        <v>3.570321835798334</v>
+        <v>3.718896945595609</v>
       </c>
       <c r="D62">
-        <v>3.747288897095848</v>
+        <v>3.834919614634738</v>
       </c>
       <c r="E62">
-        <v>3.501474746698972</v>
+        <v>3.774015643972047</v>
       </c>
       <c r="F62">
-        <v>3.672748354273868</v>
+        <v>3.826367709294819</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.432885590671278</v>
+        <v>3.888114680676051</v>
       </c>
       <c r="C63">
-        <v>3.59266337594419</v>
+        <v>3.747786136908072</v>
       </c>
       <c r="D63">
-        <v>3.760665884800338</v>
+        <v>3.863198275051637</v>
       </c>
       <c r="E63">
-        <v>3.522286816629745</v>
+        <v>3.800855934415729</v>
       </c>
       <c r="F63">
-        <v>3.691695578499602</v>
+        <v>3.849990316939601</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.465479882677792</v>
+        <v>3.912254145672671</v>
       </c>
       <c r="C64">
-        <v>3.616833747179401</v>
+        <v>3.777492571944851</v>
       </c>
       <c r="D64">
-        <v>3.774688417105675</v>
+        <v>3.892133539878782</v>
       </c>
       <c r="E64">
-        <v>3.545575053972395</v>
+        <v>3.828381843305839</v>
       </c>
       <c r="F64">
-        <v>3.71146857356348</v>
+        <v>3.873902891781936</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.5009698906585</v>
+        <v>3.936796713933997</v>
       </c>
       <c r="C65">
-        <v>3.642897884090916</v>
+        <v>3.808014471577846</v>
       </c>
       <c r="D65">
-        <v>3.789367909829033</v>
+        <v>3.921721780649533</v>
       </c>
       <c r="E65">
-        <v>3.571420582709615</v>
+        <v>3.856591640350009</v>
       </c>
       <c r="F65">
-        <v>3.732068704701171</v>
+        <v>3.898082739449375</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.539352143130014</v>
+        <v>3.961737199326331</v>
       </c>
       <c r="C66">
-        <v>3.670901457920382</v>
+        <v>3.839348516526233</v>
       </c>
       <c r="D66">
-        <v>3.804707618621799</v>
+        <v>3.951958052451567</v>
       </c>
       <c r="E66">
-        <v>3.599875264912662</v>
+        <v>3.885482122201084</v>
       </c>
       <c r="F66">
-        <v>3.753487875066409</v>
+        <v>3.922505005429773</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.580579796698829</v>
+        <v>3.98706891906004</v>
       </c>
       <c r="C67">
-        <v>3.700868571011712</v>
+        <v>3.8714894685334</v>
       </c>
       <c r="D67">
-        <v>3.820703145562835</v>
+        <v>3.982835841079698</v>
       </c>
       <c r="E67">
-        <v>3.630959348128013</v>
+        <v>3.91504828298243</v>
       </c>
       <c r="F67">
-        <v>3.775709108089838</v>
+        <v>3.947142527625839</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.62455958520561</v>
+        <v>4.012783400528046</v>
       </c>
       <c r="C68">
-        <v>3.732799074373812</v>
+        <v>3.904429703663372</v>
       </c>
       <c r="D68">
-        <v>3.837342918399349</v>
+        <v>4.014346742119974</v>
       </c>
       <c r="E68">
-        <v>3.664658871461385</v>
+        <v>3.945282889705573</v>
       </c>
       <c r="F68">
-        <v>3.798707067066375</v>
+        <v>3.971965682733657</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.671149225996936</v>
+        <v>4.038870030878756</v>
       </c>
       <c r="C69">
-        <v>3.766665613346159</v>
+        <v>3.938158580139425</v>
       </c>
       <c r="D69">
-        <v>3.854608648152134</v>
+        <v>4.046480018678318</v>
       </c>
       <c r="E69">
-        <v>3.700922998111901</v>
+        <v>3.97617598475231</v>
       </c>
       <c r="F69">
-        <v>3.82244857466416</v>
+        <v>3.996942229745089</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.720155748753704</v>
+        <v>4.065315638811515</v>
       </c>
       <c r="C70">
-        <v>3.802410557097803</v>
+        <v>3.972661571509522</v>
       </c>
       <c r="D70">
-        <v>3.872475772948776</v>
+        <v>4.079222015202913</v>
       </c>
       <c r="E70">
-        <v>3.739661448426991</v>
+        <v>4.007714141929705</v>
       </c>
       <c r="F70">
-        <v>3.846893070743965</v>
+        <v>4.022037151218124</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.771335231695116</v>
+        <v>4.092104016315365</v>
       </c>
       <c r="C71">
-        <v>3.839943107034274</v>
+        <v>4.007919094765242</v>
       </c>
       <c r="D71">
-        <v>3.890913886490535</v>
+        <v>4.112555432732313</v>
       </c>
       <c r="E71">
-        <v>3.780742318374412</v>
+        <v>4.039879667481586</v>
       </c>
       <c r="F71">
-        <v>3.871993115172158</v>
+        <v>4.047212507418065</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.82439453257294</v>
+        <v>4.119215349162513</v>
       </c>
       <c r="C72">
-        <v>3.87913670492893</v>
+        <v>4.043904968016995</v>
       </c>
       <c r="D72">
-        <v>3.90988715373135</v>
+        <v>4.146458362221423</v>
       </c>
       <c r="E72">
-        <v>3.823990658018865</v>
+        <v>4.072649586823</v>
       </c>
       <c r="F72">
-        <v>3.897694857379101</v>
+        <v>4.072427309970513</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.878995488528196</v>
+        <v>4.146625574617969</v>
       </c>
       <c r="C73">
-        <v>3.919827725477629</v>
+        <v>4.080584359569644</v>
       </c>
       <c r="D73">
-        <v>3.929354719280012</v>
+        <v>4.18090300917013</v>
       </c>
       <c r="E73">
-        <v>3.869188249536632</v>
+        <v>4.10599441290934</v>
       </c>
       <c r="F73">
-        <v>3.923938526907141</v>
+        <v>4.097637429718252</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.934761882475601</v>
+        <v>4.174305672719254</v>
       </c>
       <c r="C74">
-        <v>3.961815475235018</v>
+        <v>4.117911140506914</v>
       </c>
       <c r="D74">
-        <v>3.949271113896042</v>
+        <v>4.215854022159914</v>
       </c>
       <c r="E74">
-        <v>3.916075021808354</v>
+        <v>4.139876681383715</v>
       </c>
       <c r="F74">
-        <v>3.950658895885878</v>
+        <v>4.122795550711341</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.991289256355773</v>
+        <v>4.202220901485937</v>
       </c>
       <c r="C75">
-        <v>4.004864263318264</v>
+        <v>4.155824594856496</v>
       </c>
       <c r="D75">
-        <v>3.969586659646539</v>
+        <v>4.251266376231448</v>
       </c>
       <c r="E75">
-        <v>3.964352582525455</v>
+        <v>4.17424931022284</v>
       </c>
       <c r="F75">
-        <v>3.977785790490592</v>
+        <v>4.147851210511801</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.048157008750266</v>
+        <v>4.230330001619076</v>
       </c>
       <c r="C76">
-        <v>4.048707864446881</v>
+        <v>4.194245494512089</v>
       </c>
       <c r="D76">
-        <v>3.990247888883725</v>
+        <v>4.287082770676118</v>
       </c>
       <c r="E76">
-        <v>4.013690017840625</v>
+        <v>4.20905378198223</v>
       </c>
       <c r="F76">
-        <v>4.005244687345991</v>
+        <v>4.17275093480198</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.10494220038905</v>
+        <v>4.258584386074459</v>
       </c>
       <c r="C77">
-        <v>4.093056420404106</v>
+        <v>4.233071726618818</v>
       </c>
       <c r="D77">
-        <v>4.011197972895581</v>
+        <v>4.323230472298235</v>
       </c>
       <c r="E77">
-        <v>4.063732118815897</v>
+        <v>4.24421826724186</v>
       </c>
       <c r="F77">
-        <v>4.032957284273608</v>
+        <v>4.197438503788168</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.161233479649695</v>
+        <v>4.286927462912403</v>
       </c>
       <c r="C78">
-        <v>4.137605501023685</v>
+        <v>4.272174218687389</v>
       </c>
       <c r="D78">
-        <v>4.032377167638105</v>
+        <v>4.35961777073124</v>
       </c>
       <c r="E78">
-        <v>4.114109516688159</v>
+        <v>4.279655833683401</v>
       </c>
       <c r="F78">
-        <v>4.060842113731607</v>
+        <v>4.221855384869698</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.216644206962333</v>
+        <v>4.315294080522679</v>
       </c>
       <c r="C79">
-        <v>4.182046523993026</v>
+        <v>4.311393768998739</v>
       </c>
       <c r="D79">
-        <v>4.053723281708119</v>
+        <v>4.396130388221735</v>
       </c>
       <c r="E79">
-        <v>4.164450276441436</v>
+        <v>4.315263010163992</v>
       </c>
       <c r="F79">
-        <v>4.088815280355884</v>
+        <v>4.245941335586055</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.270823409648372</v>
+        <v>4.343610197580453</v>
       </c>
       <c r="C80">
-        <v>4.226077581455006</v>
+        <v>4.350540163153994</v>
       </c>
       <c r="D80">
-        <v>4.075172173644512</v>
+        <v>4.432628467795821</v>
       </c>
       <c r="E80">
-        <v>4.214391642377681</v>
+        <v>4.350918978768149</v>
       </c>
       <c r="F80">
-        <v>4.116791252507729</v>
+        <v>4.269635188696551</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.323463715571539</v>
+        <v>4.371792908099337</v>
       </c>
       <c r="C81">
-        <v>4.269413499362828</v>
+        <v>4.389394804213453</v>
       </c>
       <c r="D81">
-        <v>4.096658280469413</v>
+        <v>4.468945183085012</v>
       </c>
       <c r="E81">
-        <v>4.263591179918345</v>
+        <v>4.386485693660385</v>
       </c>
       <c r="F81">
-        <v>4.144683658805666</v>
+        <v>4.292875788395278</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.374305968827361</v>
+        <v>4.39975090278547</v>
       </c>
       <c r="C82">
-        <v>4.311794161594468</v>
+        <v>4.427717593275402</v>
       </c>
       <c r="D82">
-        <v>4.118115179412444</v>
+        <v>4.504888021118528</v>
       </c>
       <c r="E82">
-        <v>4.311736181265638</v>
+        <v>4.421809282557708</v>
       </c>
       <c r="F82">
-        <v>4.172406272702769</v>
+        <v>4.315603033344896</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.423140599291951</v>
+        <v>4.427385454665406</v>
       </c>
       <c r="C83">
-        <v>4.352990515012473</v>
+        <v>4.465257854452073</v>
       </c>
       <c r="D83">
-        <v>4.139476182121882</v>
+        <v>4.540243712928781</v>
       </c>
       <c r="E83">
-        <v>4.358550613862013</v>
+        <v>4.456722926341197</v>
       </c>
       <c r="F83">
-        <v>4.199873959642309</v>
+        <v>4.337758949764188</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.469806232443529</v>
+        <v>4.454591932377109</v>
       </c>
       <c r="C84">
-        <v>4.392807969441496</v>
+        <v>4.501767868921924</v>
       </c>
       <c r="D84">
-        <v>4.160674957480239</v>
+        <v>4.574787077642403</v>
       </c>
       <c r="E84">
-        <v>4.40379934148764</v>
+        <v>4.491051171751465</v>
       </c>
       <c r="F84">
-        <v>4.227003590047529</v>
+        <v>4.359288712589734</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.514186234497697</v>
+        <v>4.48126183185545</v>
       </c>
       <c r="C85">
-        <v>4.431087410198548</v>
+        <v>4.537016486203761</v>
       </c>
       <c r="D85">
-        <v>4.181646174092049</v>
+        <v>4.608292853697932</v>
       </c>
       <c r="E85">
-        <v>4.447289656730718</v>
+        <v>4.52461545412183</v>
       </c>
       <c r="F85">
-        <v>4.253715015996797</v>
+        <v>4.38014153556102</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.556203550058734</v>
+        <v>4.507285233321196</v>
       </c>
       <c r="C86">
-        <v>4.467703484911302</v>
+        <v>4.570800579024485</v>
       </c>
       <c r="D86">
-        <v>4.202322676339225</v>
+        <v>4.64054852917356</v>
       </c>
       <c r="E86">
-        <v>4.488869435781846</v>
+        <v>4.557240329221863</v>
       </c>
       <c r="F86">
-        <v>4.279929374732972</v>
+        <v>4.400271367336868</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.595815069677712</v>
+        <v>4.532553510364606</v>
       </c>
       <c r="C87">
-        <v>4.502560786531789</v>
+        <v>4.602952556356419</v>
       </c>
       <c r="D87">
-        <v>4.22262773156846</v>
+        <v>4.67136579882684</v>
       </c>
       <c r="E87">
-        <v>4.528422596915418</v>
+        <v>4.588759682394111</v>
       </c>
       <c r="F87">
-        <v>4.305563981259811</v>
+        <v>4.41963738113183</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.633006824784395</v>
+        <v>4.556962151153441</v>
       </c>
       <c r="C88">
-        <v>4.53559356079354</v>
+        <v>4.633343562138973</v>
       </c>
       <c r="D88">
-        <v>4.242487701241553</v>
+        <v>4.700588693870063</v>
       </c>
       <c r="E88">
-        <v>4.565869550318236</v>
+        <v>4.619022293364927</v>
       </c>
       <c r="F88">
-        <v>4.33054151210266</v>
+        <v>4.438204240173173</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.667789273349579</v>
+        <v>4.58041331388151</v>
       </c>
       <c r="C89">
-        <v>4.566762469887297</v>
+        <v>4.661882938476789</v>
       </c>
       <c r="D89">
-        <v>4.26183620902213</v>
+        <v>4.728097539671834</v>
       </c>
       <c r="E89">
-        <v>4.601163659060954</v>
+        <v>4.647896173498902</v>
       </c>
       <c r="F89">
-        <v>4.354793457423461</v>
+        <v>4.455942157967952</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.700192302002288</v>
+        <v>4.602818129775597</v>
       </c>
       <c r="C90">
-        <v>4.596050145845937</v>
+        <v>4.688514668161522</v>
       </c>
       <c r="D90">
-        <v>4.280614130669204</v>
+        <v>4.753809026239415</v>
       </c>
       <c r="E90">
-        <v>4.634285523575636</v>
+        <v>4.675271354353042</v>
       </c>
       <c r="F90">
-        <v>4.37825976792616</v>
+        <v>4.472826806701521</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.730260557403102</v>
+        <v>4.62409851409476</v>
       </c>
       <c r="C91">
-        <v>4.623457150390609</v>
+        <v>4.713212878556492</v>
       </c>
       <c r="D91">
-        <v>4.298769366144407</v>
+        <v>4.777673345033084</v>
       </c>
       <c r="E91">
-        <v>4.665238155103403</v>
+        <v>4.70106110883635</v>
       </c>
       <c r="F91">
-        <v>4.40088858993091</v>
+        <v>4.488839095388427</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.75804983201253</v>
+        <v>4.644188335782805</v>
       </c>
       <c r="C92">
-        <v>4.648998462038701</v>
+        <v>4.735976426218167</v>
       </c>
       <c r="D92">
-        <v>4.316256715288597</v>
+        <v>4.799669690923041</v>
       </c>
       <c r="E92">
-        <v>4.694042450854798</v>
+        <v>4.725201760167267</v>
       </c>
       <c r="F92">
-        <v>4.42263590621809</v>
+        <v>4.503964859341306</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.78362420895729</v>
+        <v>4.663034051002541</v>
       </c>
       <c r="C93">
-        <v>4.672700556053374</v>
+        <v>4.756823869891174</v>
       </c>
       <c r="D93">
-        <v>4.333037655644108</v>
+        <v>4.819801105433232</v>
       </c>
       <c r="E93">
-        <v>4.72073341317098</v>
+        <v>4.747651361879082</v>
       </c>
       <c r="F93">
-        <v>4.443465122964477</v>
+        <v>4.518194500331544</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.807053292202688</v>
+        <v>4.680594765154194</v>
       </c>
       <c r="C94">
-        <v>4.694598784383837</v>
+        <v>4.775788887077228</v>
       </c>
       <c r="D94">
-        <v>4.349080019631725</v>
+        <v>4.83808943911901</v>
       </c>
       <c r="E94">
-        <v>4.745356941442934</v>
+        <v>4.76838766503859</v>
       </c>
       <c r="F94">
-        <v>4.463346402534571</v>
+        <v>4.531522593142687</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.828410335861174</v>
+        <v>4.696841827247155</v>
       </c>
       <c r="C95">
-        <v>4.714735018915971</v>
+        <v>4.792916407583759</v>
       </c>
       <c r="D95">
-        <v>4.364357641547618</v>
+        <v>4.854570808723685</v>
       </c>
       <c r="E95">
-        <v>4.767966830773431</v>
+        <v>4.787405650433644</v>
       </c>
       <c r="F95">
-        <v>4.482256441241952</v>
+        <v>4.54394748107062</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.847770818359436</v>
+        <v>4.711758070763449</v>
       </c>
       <c r="C96">
-        <v>4.733156023058106</v>
+        <v>4.808259395047983</v>
       </c>
       <c r="D96">
-        <v>4.378849964517404</v>
+        <v>4.869291775434943</v>
       </c>
       <c r="E96">
-        <v>4.788622668137839</v>
+        <v>4.804714917384563</v>
       </c>
       <c r="F96">
-        <v>4.500177772699527</v>
+        <v>4.555470881049655</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.865211138011922</v>
+        <v>4.725336802063383</v>
       </c>
       <c r="C97">
-        <v>4.749912104083899</v>
+        <v>4.821876308696565</v>
       </c>
       <c r="D97">
-        <v>4.392541611368769</v>
+        <v>4.882306190318301</v>
       </c>
       <c r="E97">
-        <v>4.807388100640595</v>
+        <v>4.820337131531041</v>
       </c>
       <c r="F97">
-        <v>4.517098162814129</v>
+        <v>4.566097502266324</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.880807611572071</v>
+        <v>4.737580650032864</v>
       </c>
       <c r="C98">
-        <v>4.765055876112437</v>
+        <v>4.833829172404337</v>
       </c>
       <c r="D98">
-        <v>4.405421941346569</v>
+        <v>4.893672714201921</v>
       </c>
       <c r="E98">
-        <v>4.8243292777339</v>
+        <v>4.834303663995088</v>
       </c>
       <c r="F98">
-        <v>4.533010143777066</v>
+        <v>4.575834684823229</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.894635805686111</v>
+        <v>4.748500349986219</v>
       </c>
       <c r="C99">
-        <v>4.778641298794173</v>
+        <v>4.844181997133861</v>
       </c>
       <c r="D99">
-        <v>4.417484600124943</v>
+        <v>4.903452965179053</v>
       </c>
       <c r="E99">
-        <v>4.839513611183397</v>
+        <v>4.846653463324921</v>
       </c>
       <c r="F99">
-        <v>4.54791055173735</v>
+        <v>4.584692063213349</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.906770044135838</v>
+        <v>4.758113537751838</v>
       </c>
       <c r="C100">
-        <v>4.790722865697951</v>
+        <v>4.852999585141564</v>
       </c>
       <c r="D100">
-        <v>4.428727084239421</v>
+        <v>4.911710033095765</v>
       </c>
       <c r="E100">
-        <v>4.853008881932855</v>
+        <v>4.857431226736147</v>
       </c>
       <c r="F100">
-        <v>4.56180003025035</v>
+        <v>4.592681256475703</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4.917283011063923</v>
+        <v>4.766443597219548</v>
       </c>
       <c r="C101">
-        <v>4.801355278308524</v>
+        <v>4.860346670391706</v>
       </c>
       <c r="D101">
-        <v>4.439150316289184</v>
+        <v>4.918507365693661</v>
       </c>
       <c r="E101">
-        <v>4.864882767565589</v>
+        <v>4.866685843434761</v>
       </c>
       <c r="F101">
-        <v>4.574682543589653</v>
+        <v>4.599815584504489</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>4.926245436784575</v>
+        <v>4.773518594561376</v>
       </c>
       <c r="C102">
-        <v>4.810592869899203</v>
+        <v>4.866287265394107</v>
       </c>
       <c r="D102">
-        <v>4.44875823992057</v>
+        <v>4.923907988993487</v>
       </c>
       <c r="E102">
-        <v>4.875202073069965</v>
+        <v>4.874469060586718</v>
       </c>
       <c r="F102">
-        <v>4.586564990105342</v>
+        <v>4.606109811501052</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.933725891732448</v>
+        <v>4.779370318824467</v>
       </c>
       <c r="C103">
-        <v>4.818489175088777</v>
+        <v>4.87088417586905</v>
       </c>
       <c r="D103">
-        <v>4.457557443954646</v>
+        <v>4.927973917916376</v>
       </c>
       <c r="E103">
-        <v>4.884032294980098</v>
+        <v>4.880834437513464</v>
       </c>
       <c r="F103">
-        <v>4.597456853391877</v>
+        <v>4.611579909920814</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.9397906724872</v>
+        <v>4.784033426031568</v>
       </c>
       <c r="C104">
-        <v>4.825096736328567</v>
+        <v>4.874198660870873</v>
       </c>
       <c r="D104">
-        <v>4.465556813874565</v>
+        <v>4.93076574082297</v>
       </c>
       <c r="E104">
-        <v>4.891437416110509</v>
+        <v>4.885836513258079</v>
       </c>
       <c r="F104">
-        <v>4.607369856888096</v>
+        <v>4.61624285073554</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4.944503738728013</v>
+        <v>4.787544683929404</v>
       </c>
       <c r="C105">
-        <v>4.830466941325092</v>
+        <v>4.876290187272216</v>
       </c>
       <c r="D105">
-        <v>4.472767210771839</v>
+        <v>4.932342322697455</v>
       </c>
       <c r="E105">
-        <v>4.897479685684256</v>
+        <v>4.889530117745373</v>
       </c>
       <c r="F105">
-        <v>4.616317642036986</v>
+        <v>4.620116418983768</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4.947926678535558</v>
+        <v>4.789942344824073</v>
       </c>
       <c r="C106">
-        <v>4.834649857772684</v>
+        <v>4.877216280858389</v>
       </c>
       <c r="D106">
-        <v>4.479201166954026</v>
+        <v>4.932760624341381</v>
       </c>
       <c r="E106">
-        <v>4.902219433113117</v>
+        <v>4.891969812275807</v>
       </c>
       <c r="F106">
-        <v>4.624315491110272</v>
+        <v>4.62321904854815</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4.950118698755113</v>
+        <v>4.791265611255226</v>
       </c>
       <c r="C107">
-        <v>4.837694110876828</v>
+        <v>4.877032428927305</v>
       </c>
       <c r="D107">
-        <v>4.48487262559954</v>
+        <v>4.932075585887785</v>
       </c>
       <c r="E107">
-        <v>4.905714972292754</v>
+        <v>4.893209459675107</v>
       </c>
       <c r="F107">
-        <v>4.631380020648506</v>
+        <v>4.625569669670049</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.95113663424875</v>
+        <v>4.791554178653093</v>
       </c>
       <c r="C108">
-        <v>4.839646821959839</v>
+        <v>4.875792023691052</v>
       </c>
       <c r="D108">
-        <v>4.489796712026947</v>
+        <v>4.930340055619568</v>
       </c>
       <c r="E108">
-        <v>4.90802250882909</v>
+        <v>4.893301911800785</v>
       </c>
       <c r="F108">
-        <v>4.63752903347202</v>
+        <v>4.627187577386164</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>4.951034997334781</v>
+        <v>4.790847854924756</v>
       </c>
       <c r="C109">
-        <v>4.840553583539611</v>
+        <v>4.873546344375018</v>
       </c>
       <c r="D109">
-        <v>4.493989518305603</v>
+        <v>4.92760476670225</v>
       </c>
       <c r="E109">
-        <v>4.909196166246015</v>
+        <v>4.89229877354193</v>
       </c>
       <c r="F109">
-        <v>4.642781302242173</v>
+        <v>4.628092315506566</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4.949866028199416</v>
+        <v>4.789186253671351</v>
       </c>
       <c r="C110">
-        <v>4.840458425906846</v>
+        <v>4.870344567317609</v>
       </c>
       <c r="D110">
-        <v>4.497467911149339</v>
+        <v>4.923918343552199</v>
       </c>
       <c r="E110">
-        <v>4.909287990894688</v>
+        <v>4.890250224299591</v>
       </c>
       <c r="F110">
-        <v>4.647156370985821</v>
+        <v>4.628303574677298</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>4.947679753927019</v>
+        <v>4.786608547048168</v>
       </c>
       <c r="C111">
-        <v>4.839403845952952</v>
+        <v>4.866233793179802</v>
       </c>
       <c r="D111">
-        <v>4.500249362224601</v>
+        <v>4.919327328647356</v>
       </c>
       <c r="E111">
-        <v>4.908347952929685</v>
+        <v>4.887204890329249</v>
       </c>
       <c r="F111">
-        <v>4.650674386137134</v>
+        <v>4.627841102278976</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>4.944524051271498</v>
+        <v>4.783153266034094</v>
       </c>
       <c r="C112">
-        <v>4.837430810970187</v>
+        <v>4.861259088421477</v>
       </c>
       <c r="D112">
-        <v>4.502351798220981</v>
+        <v>4.913876223296731</v>
       </c>
       <c r="E112">
-        <v>4.906423971891603</v>
+        <v>4.883209764936042</v>
       </c>
       <c r="F112">
-        <v>4.653355951138599</v>
+        <v>4.626724623401373</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>4.940444715049704</v>
+        <v>4.778858142109529</v>
       </c>
       <c r="C113">
-        <v>4.834578755737708</v>
+        <v>4.855463531083865</v>
       </c>
       <c r="D113">
-        <v>4.503793467832623</v>
+        <v>4.907607535210315</v>
       </c>
       <c r="E113">
-        <v>4.903561955190541</v>
+        <v>4.878310149528546</v>
       </c>
       <c r="F113">
-        <v>4.655222012929996</v>
+        <v>4.624973772179247</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>4.935485530711048</v>
+        <v>4.773759985904848</v>
       </c>
       <c r="C114">
-        <v>4.830885615117404</v>
+        <v>4.848888273661393</v>
       </c>
       <c r="D114">
-        <v>4.504592832606673</v>
+        <v>4.900561846235934</v>
       </c>
       <c r="E114">
-        <v>4.899805843702542</v>
+        <v>4.872549638099358</v>
       </c>
       <c r="F114">
-        <v>4.656293748140844</v>
+        <v>4.622608032438086</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>4.929688348582858</v>
+        <v>4.767894596661765</v>
       </c>
       <c r="C115">
-        <v>4.826387848075863</v>
+        <v>4.841572606908029</v>
       </c>
       <c r="D115">
-        <v>4.504768464514496</v>
+        <v>4.892777877507548</v>
       </c>
       <c r="E115">
-        <v>4.895197680688841</v>
+        <v>4.865970114628759</v>
       </c>
       <c r="F115">
-        <v>4.656592463936046</v>
+        <v>4.619646688254761</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4.923093157804874</v>
+        <v>4.761296696279701</v>
       </c>
       <c r="C116">
-        <v>4.821120488822683</v>
+        <v>4.833554027525101</v>
       </c>
       <c r="D116">
-        <v>4.504338958221542</v>
+        <v>4.884292558290212</v>
       </c>
       <c r="E116">
-        <v>4.889777673257107</v>
+        <v>4.858611765010065</v>
       </c>
       <c r="F116">
-        <v>4.656139508365818</v>
+        <v>4.616108777680449</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>4.915738159087153</v>
+        <v>4.753999883554478</v>
       </c>
       <c r="C117">
-        <v>4.815117186171493</v>
+        <v>4.824868303201447</v>
       </c>
       <c r="D117">
-        <v>4.503322856744037</v>
+        <v>4.875141088179825</v>
       </c>
       <c r="E117">
-        <v>4.883584253978666</v>
+        <v>4.850513099664176</v>
       </c>
       <c r="F117">
-        <v>4.654956193827456</v>
+        <v>4.612013057735082</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>4.907659837366819</v>
+        <v>4.746036605586875</v>
       </c>
       <c r="C118">
-        <v>4.808410244584377</v>
+        <v>4.815549534956708</v>
       </c>
       <c r="D118">
-        <v>4.501738582388683</v>
+        <v>4.865357011412508</v>
       </c>
       <c r="E118">
-        <v>4.876654138198489</v>
+        <v>4.841710986942252</v>
       </c>
       <c r="F118">
-        <v>4.653063731808728</v>
+        <v>4.607377959096808</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>4.89889302977068</v>
+        <v>4.737438143376465</v>
       </c>
       <c r="C119">
-        <v>4.801030664752925</v>
+        <v>4.805630231509798</v>
       </c>
       <c r="D119">
-        <v>4.499604381271524</v>
+        <v>4.854972285326623</v>
       </c>
       <c r="E119">
-        <v>4.869022391524742</v>
+        <v>4.83224069440218</v>
       </c>
       <c r="F119">
-        <v>4.650483176356681</v>
+        <v>4.602221579436473</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4.889470998962361</v>
+        <v>4.728234608662682</v>
       </c>
       <c r="C120">
-        <v>4.793008182864931</v>
+        <v>4.795141373496548</v>
       </c>
       <c r="D120">
-        <v>4.496938278265157</v>
+        <v>4.844017349386794</v>
       </c>
       <c r="E120">
-        <v>4.860722493790094</v>
+        <v>4.82213593482749</v>
       </c>
       <c r="F120">
-        <v>4.647235373958585</v>
+        <v>4.59656165572033</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>4.879425500274427</v>
+        <v>4.718454950236722</v>
       </c>
       <c r="C121">
-        <v>4.784371320589506</v>
+        <v>4.78411247980012</v>
       </c>
       <c r="D121">
-        <v>4.493758036716594</v>
+        <v>4.832521191809945</v>
       </c>
       <c r="E121">
-        <v>4.851786403803984</v>
+        <v>4.811428915119849</v>
       </c>
       <c r="F121">
-        <v>4.643340923080757</v>
+        <v>4.590415539693382</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>4.868786843273572</v>
+        <v>4.708126967146408</v>
       </c>
       <c r="C122">
-        <v>4.775147425336161</v>
+        <v>4.772571671196678</v>
       </c>
       <c r="D122">
-        <v>4.490081123728693</v>
+        <v>4.820511413093656</v>
       </c>
       <c r="E122">
-        <v>4.842244621835053</v>
+        <v>4.800150388417786</v>
       </c>
       <c r="F122">
-        <v>4.638820131602445</v>
+        <v>4.583800197286538</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4.857583959598724</v>
+        <v>4.697277328254051</v>
       </c>
       <c r="C123">
-        <v>4.765362714720093</v>
+        <v>4.76054573099167</v>
       </c>
       <c r="D123">
-        <v>4.485924681572777</v>
+        <v>4.808014291364359</v>
       </c>
       <c r="E123">
-        <v>4.83212625065511</v>
+        <v>4.788329704339971</v>
       </c>
       <c r="F123">
-        <v>4.633692992472148</v>
+        <v>4.576732182820082</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4.845844459382874</v>
+        <v>4.685931596929676</v>
       </c>
       <c r="C124">
-        <v>4.755042319627758</v>
+        <v>4.748060168922058</v>
       </c>
       <c r="D124">
-        <v>4.481305504498511</v>
+        <v>4.795054838378404</v>
       </c>
       <c r="E124">
-        <v>4.821459054854405</v>
+        <v>4.775994861109782</v>
       </c>
       <c r="F124">
-        <v>4.627979138279728</v>
+        <v>4.569227635063994</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4.833594687679079</v>
+        <v>4.674114255422372</v>
       </c>
       <c r="C125">
-        <v>4.744210324953142</v>
+        <v>4.735139273636407</v>
       </c>
       <c r="D125">
-        <v>4.476240019997764</v>
+        <v>4.781656867151113</v>
       </c>
       <c r="E125">
-        <v>4.810269517292684</v>
+        <v>4.763172563586518</v>
       </c>
       <c r="F125">
-        <v>4.621697847592851</v>
+        <v>4.561302276039392</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>4.820859786920428</v>
+        <v>4.661848730983547</v>
       </c>
       <c r="C126">
-        <v>4.732889810278293</v>
+        <v>4.721806175588622</v>
       </c>
       <c r="D126">
-        <v>4.470744273850634</v>
+        <v>4.767843035650374</v>
       </c>
       <c r="E126">
-        <v>4.798582898544751</v>
+        <v>4.749888272268793</v>
       </c>
       <c r="F126">
-        <v>4.614868013742221</v>
+        <v>4.552971405287757</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>4.807663747616576</v>
+        <v>4.649157437879068</v>
       </c>
       <c r="C127">
-        <v>4.721102887453111</v>
+        <v>4.708082894020442</v>
       </c>
       <c r="D127">
-        <v>4.464833919881202</v>
+        <v>4.753634911448497</v>
       </c>
       <c r="E127">
-        <v>4.786423281866958</v>
+        <v>4.736166259241459</v>
       </c>
       <c r="F127">
-        <v>4.60750812570531</v>
+        <v>4.544249896198814</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>4.79402945857941</v>
+        <v>4.63606180469425</v>
       </c>
       <c r="C128">
-        <v>4.70887074456907</v>
+        <v>4.693990390672439</v>
       </c>
       <c r="D128">
-        <v>4.458524211152686</v>
+        <v>4.739053020445121</v>
       </c>
       <c r="E128">
-        <v>4.773813643556064</v>
+        <v>4.722029655962776</v>
       </c>
       <c r="F128">
-        <v>4.599636272481633</v>
+        <v>4.535152201130187</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>4.779978761902002</v>
+        <v>4.622582309114266</v>
       </c>
       <c r="C129">
-        <v>4.696213671194634</v>
+        <v>4.679548626290657</v>
       </c>
       <c r="D129">
-        <v>4.451829994351533</v>
+        <v>4.724116890008436</v>
       </c>
       <c r="E129">
-        <v>4.760775879177499</v>
+        <v>4.707500501605345</v>
       </c>
       <c r="F129">
-        <v>4.591270120247675</v>
+        <v>4.525692350824592</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>4.765532494707424</v>
+        <v>4.608738514762048</v>
       </c>
       <c r="C130">
-        <v>4.683151114409591</v>
+        <v>4.664776593281817</v>
       </c>
       <c r="D130">
-        <v>4.444765706580958</v>
+        <v>4.708845107573075</v>
       </c>
       <c r="E130">
-        <v>4.747330880094969</v>
+        <v>4.692599790962377</v>
       </c>
       <c r="F130">
-        <v>4.582426911033395</v>
+        <v>4.515883956154497</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>4.750710536355442</v>
+        <v>4.594549096858209</v>
       </c>
       <c r="C131">
-        <v>4.669701688547309</v>
+        <v>4.649692376754241</v>
       </c>
       <c r="D131">
-        <v>4.437345376720416</v>
+        <v>4.693255353980661</v>
       </c>
       <c r="E131">
-        <v>4.733498548247915</v>
+        <v>4.677347523950939</v>
       </c>
       <c r="F131">
-        <v>4.573123457185241</v>
+        <v>4.505740214152916</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>4.735531855469731</v>
+        <v>4.580031882629874</v>
       </c>
       <c r="C132">
-        <v>4.655883238121166</v>
+        <v>4.634313184950807</v>
       </c>
       <c r="D132">
-        <v>4.429582619024305</v>
+        <v>4.677364454920247</v>
       </c>
       <c r="E132">
-        <v>4.719297869858034</v>
+        <v>4.661762747812754</v>
       </c>
       <c r="F132">
-        <v>4.563376135490988</v>
+        <v>4.495273912707416</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>4.720014546748113</v>
+        <v>4.565203884172464</v>
       </c>
       <c r="C133">
-        <v>4.64171283728316</v>
+        <v>4.618655399075632</v>
       </c>
       <c r="D133">
-        <v>4.421490643071433</v>
+        <v>4.661188421335807</v>
       </c>
       <c r="E133">
-        <v>4.704746931892278</v>
+        <v>4.6458636036168</v>
       </c>
       <c r="F133">
-        <v>4.553200895389692</v>
+        <v>4.48449743505409</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>4.70417587247074</v>
+        <v>4.55008133083039</v>
       </c>
       <c r="C134">
-        <v>4.627206853620717</v>
+        <v>4.602734612076585</v>
       </c>
       <c r="D134">
-        <v>4.413082244422981</v>
+        <v>4.644742482693182</v>
       </c>
       <c r="E134">
-        <v>4.68986298382381</v>
+        <v>4.629667365222313</v>
       </c>
       <c r="F134">
-        <v>4.542613255982205</v>
+        <v>4.4734227681023</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>4.688032303774027</v>
+        <v>4.534679701995893</v>
       </c>
       <c r="C135">
-        <v>4.612380946809065</v>
+        <v>4.586565659811019</v>
       </c>
       <c r="D135">
-        <v>4.404369828507143</v>
+        <v>4.628041134253857</v>
       </c>
       <c r="E135">
-        <v>4.674662462500656</v>
+        <v>4.613190480104091</v>
       </c>
       <c r="F135">
-        <v>4.531628306092081</v>
+        <v>4.462061509308539</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>4.671599551881666</v>
+        <v>4.519013759532218</v>
       </c>
       <c r="C136">
-        <v>4.597250125594585</v>
+        <v>4.570162668640849</v>
       </c>
       <c r="D136">
-        <v>4.395365397429253</v>
+        <v>4.61109816290634</v>
       </c>
       <c r="E136">
-        <v>4.659161038285534</v>
+        <v>4.596448609114657</v>
       </c>
       <c r="F136">
-        <v>4.520260713948328</v>
+        <v>4.450424873542223</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>4.654892605243495</v>
+        <v>4.503097577018309</v>
       </c>
       <c r="C137">
-        <v>4.581828751103502</v>
+        <v>4.553539076898114</v>
       </c>
       <c r="D137">
-        <v>4.386080570844041</v>
+        <v>4.593926687073663</v>
       </c>
       <c r="E137">
-        <v>4.643373648089922</v>
+        <v>4.579456660937379</v>
       </c>
       <c r="F137">
-        <v>4.508524726319387</v>
+        <v>4.438523702155175</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4.637925764927698</v>
+        <v>4.486944570146518</v>
       </c>
       <c r="C138">
-        <v>4.566130585857915</v>
+        <v>4.536707678089481</v>
       </c>
       <c r="D138">
-        <v>4.376526585310386</v>
+        <v>4.576539189150529</v>
       </c>
       <c r="E138">
-        <v>4.627314525801594</v>
+        <v>4.562228825366881</v>
       </c>
       <c r="F138">
-        <v>4.496434175164846</v>
+        <v>4.426368471098499</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>4.620712672024334</v>
+        <v>4.470567524908981</v>
       </c>
       <c r="C139">
-        <v>4.550168798909951</v>
+        <v>4.51968064659874</v>
       </c>
       <c r="D139">
-        <v>4.366714303428481</v>
+        <v>4.558947541691703</v>
       </c>
       <c r="E139">
-        <v>4.610997244189998</v>
+        <v>4.54477862057119</v>
       </c>
       <c r="F139">
-        <v>4.484002484202397</v>
+        <v>4.413969299831931</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>4.603266336166588</v>
+        <v>4.453978626412031</v>
       </c>
       <c r="C140">
-        <v>4.533956011158209</v>
+        <v>4.502469566882613</v>
       </c>
       <c r="D140">
-        <v>4.356654217975882</v>
+        <v>4.541163044244829</v>
       </c>
       <c r="E140">
-        <v>4.594434731424322</v>
+        <v>4.527118897076148</v>
       </c>
       <c r="F140">
-        <v>4.471242673060738</v>
+        <v>4.401335959561832</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4.585599175478528</v>
+        <v>4.437189486356675</v>
       </c>
       <c r="C141">
-        <v>4.517504296807307</v>
+        <v>4.48508546890935</v>
       </c>
       <c r="D141">
-        <v>4.346356461713515</v>
+        <v>4.523196444293783</v>
       </c>
       <c r="E141">
-        <v>4.577639318716309</v>
+        <v>4.509261917000665</v>
       </c>
       <c r="F141">
-        <v>4.45816736654316</v>
+        <v>4.38847788151583</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4.567723032953462</v>
+        <v>4.420211164366956</v>
       </c>
       <c r="C142">
-        <v>4.500825228807258</v>
+        <v>4.467538844874142</v>
       </c>
       <c r="D142">
-        <v>4.33583082094041</v>
+        <v>4.505057967590514</v>
       </c>
       <c r="E142">
-        <v>4.560622749873022</v>
+        <v>4.491219323026727</v>
       </c>
       <c r="F142">
-        <v>4.444788801601701</v>
+        <v>4.375404166748307</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4.549649207079382</v>
+        <v>4.403054206451621</v>
       </c>
       <c r="C143">
-        <v>4.483929877857323</v>
+        <v>4.449839684800859</v>
       </c>
       <c r="D143">
-        <v>4.325086736528708</v>
+        <v>4.486757344518009</v>
       </c>
       <c r="E143">
-        <v>4.543396225999422</v>
+        <v>4.473002221451186</v>
       </c>
       <c r="F143">
-        <v>4.431118833841986</v>
+        <v>4.362123592933608</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>4.531388492618589</v>
+        <v>4.385728645600267</v>
       </c>
       <c r="C144">
-        <v>4.466828854839846</v>
+        <v>4.431997493698417</v>
       </c>
       <c r="D144">
-        <v>4.314133318909962</v>
+        <v>4.468303829556469</v>
       </c>
       <c r="E144">
-        <v>4.525970415946712</v>
+        <v>4.45462117546961</v>
       </c>
       <c r="F144">
-        <v>4.417168947824616</v>
+        <v>4.348644631240461</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>4.512951157850139</v>
+        <v>4.368244056498555</v>
       </c>
       <c r="C145">
-        <v>4.44953231057023</v>
+        <v>4.414021318444149</v>
       </c>
       <c r="D145">
-        <v>4.302979353840167</v>
+        <v>4.449706230630363</v>
       </c>
       <c r="E145">
-        <v>4.508355494332412</v>
+        <v>4.436086232574261</v>
       </c>
       <c r="F145">
-        <v>4.402950263723541</v>
+        <v>4.334975444730002</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>4.494347038646453</v>
+        <v>4.350609539021765</v>
       </c>
       <c r="C146">
-        <v>4.432049973898832</v>
+        <v>4.395919770991355</v>
       </c>
       <c r="D146">
-        <v>4.291633313220562</v>
+        <v>4.430972925469485</v>
       </c>
       <c r="E146">
-        <v>4.490561153904821</v>
+        <v>4.417406971548461</v>
       </c>
       <c r="F146">
-        <v>4.388473546302357</v>
+        <v>4.321123906365139</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>4.475585478056588</v>
+        <v>4.332833779376621</v>
       </c>
       <c r="C147">
-        <v>4.414391152325631</v>
+        <v>4.377701044914477</v>
       </c>
       <c r="D147">
-        <v>4.280103362921333</v>
+        <v>4.412111885048294</v>
       </c>
       <c r="E147">
-        <v>4.472596636585226</v>
+        <v>4.398592490855712</v>
       </c>
       <c r="F147">
-        <v>4.373749213547303</v>
+        <v>4.307097603161395</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>4.45667542207782</v>
+        <v>4.314925031522842</v>
       </c>
       <c r="C148">
-        <v>4.396564766679999</v>
+        <v>4.359372942364708</v>
       </c>
       <c r="D148">
-        <v>4.268397372351166</v>
+        <v>4.393130694738623</v>
       </c>
       <c r="E148">
-        <v>4.454470749041938</v>
+        <v>4.37965146953742</v>
       </c>
       <c r="F148">
-        <v>4.358787345241886</v>
+        <v>4.292903845987034</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>4.437625388361841</v>
+        <v>4.296891170646243</v>
       </c>
       <c r="C149">
-        <v>4.378579351318055</v>
+        <v>4.340942886430904</v>
       </c>
       <c r="D149">
-        <v>4.256522923081356</v>
+        <v>4.37403656905083</v>
       </c>
       <c r="E149">
-        <v>4.436191885577641</v>
+        <v>4.360592150279947</v>
       </c>
       <c r="F149">
-        <v>4.343597691704052</v>
+        <v>4.278549679333217</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>4.418443505520888</v>
+        <v>4.278739686170196</v>
       </c>
       <c r="C150">
-        <v>4.360443086614153</v>
+        <v>4.322417944481957</v>
       </c>
       <c r="D150">
-        <v>4.244487317916172</v>
+        <v>4.354836374683013</v>
       </c>
       <c r="E150">
-        <v>4.417768048748112</v>
+        <v>4.341422397162463</v>
       </c>
       <c r="F150">
-        <v>4.32818968142858</v>
+        <v>4.264041887375158</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>4.399137534799644</v>
+        <v>4.260477716907351</v>
       </c>
       <c r="C151">
-        <v>4.342163798387769</v>
+        <v>4.303804843406245</v>
       </c>
       <c r="D151">
-        <v>4.232297589349796</v>
+        <v>4.335536643359211</v>
       </c>
       <c r="E151">
-        <v>4.39920686280687</v>
+        <v>4.322149681881907</v>
       </c>
       <c r="F151">
-        <v>4.312572430738064</v>
+        <v>4.249387001474715</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>4.379714871209619</v>
+        <v>4.242112057534621</v>
       </c>
       <c r="C152">
-        <v>4.323748988228455</v>
+        <v>4.285109984803807</v>
       </c>
       <c r="D152">
-        <v>4.21996050856909</v>
+        <v>4.316143585656278</v>
       </c>
       <c r="E152">
-        <v>4.380515600154115</v>
+        <v>4.302781132198091</v>
       </c>
       <c r="F152">
-        <v>4.296754750665245</v>
+        <v>4.234591312924103</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>4.360182584725624</v>
+        <v>4.223649179116504</v>
       </c>
       <c r="C153">
-        <v>4.305205832815072</v>
+        <v>4.26633946530773</v>
       </c>
       <c r="D153">
-        <v>4.207482593658247</v>
+        <v>4.296663116769131</v>
       </c>
       <c r="E153">
-        <v>4.361701187488498</v>
+        <v>4.283323524414372</v>
       </c>
       <c r="F153">
-        <v>4.28074516017992</v>
+        <v>4.219660878500908</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>4.340547408266445</v>
+        <v>4.205095246254348</v>
       </c>
       <c r="C154">
-        <v>4.286541211660801</v>
+        <v>4.247499085577314</v>
       </c>
       <c r="D154">
-        <v>4.194870118181372</v>
+        <v>4.277100864936865</v>
       </c>
       <c r="E154">
-        <v>4.342770232820736</v>
+        <v>4.263783312242286</v>
       </c>
       <c r="F154">
-        <v>4.264551890212515</v>
+        <v>4.204601529047289</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>4.320815783170852</v>
+        <v>4.186456124034534</v>
       </c>
       <c r="C155">
-        <v>4.267761706761735</v>
+        <v>4.228594367658402</v>
       </c>
       <c r="D155">
-        <v>4.182129119471167</v>
+        <v>4.257462176394361</v>
       </c>
       <c r="E155">
-        <v>4.323729030469887</v>
+        <v>4.244166643931202</v>
       </c>
       <c r="F155">
-        <v>4.248182893659323</v>
+        <v>4.189418874343867</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>4.300993841191453</v>
+        <v>4.167737404695422</v>
       </c>
       <c r="C156">
-        <v>4.248873627821046</v>
+        <v>4.209630567049725</v>
       </c>
       <c r="D156">
-        <v>4.169265406118518</v>
+        <v>4.237752163172655</v>
       </c>
       <c r="E156">
-        <v>4.304583585037323</v>
+        <v>4.224479361637757</v>
       </c>
       <c r="F156">
-        <v>4.231645853988262</v>
+        <v>4.174118316257726</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>4.281087443147593</v>
+        <v>4.148944404639867</v>
       </c>
       <c r="C157">
-        <v>4.229883012035502</v>
+        <v>4.19061269593583</v>
       </c>
       <c r="D157">
-        <v>4.15628456682847</v>
+        <v>4.217975656591223</v>
       </c>
       <c r="E157">
-        <v>4.285339617138234</v>
+        <v>4.204727040150901</v>
       </c>
       <c r="F157">
-        <v>4.214948194126653</v>
+        <v>4.158705050111586</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>4.26110218148953</v>
+        <v>4.130082195720987</v>
       </c>
       <c r="C158">
-        <v>4.210795647259764</v>
+        <v>4.171545508138799</v>
       </c>
       <c r="D158">
-        <v>4.143191975640499</v>
+        <v>4.19813727989809</v>
       </c>
       <c r="E158">
-        <v>4.266002583421356</v>
+        <v>4.184914974563803</v>
       </c>
       <c r="F158">
-        <v>4.198097080503367</v>
+        <v>4.14318407674676</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>4.241043387419781</v>
+        <v>4.111155598258219</v>
       </c>
       <c r="C159">
-        <v>4.191617071636226</v>
+        <v>4.152433554936517</v>
       </c>
       <c r="D159">
-        <v>4.129992804063574</v>
+        <v>4.178241429969253</v>
       </c>
       <c r="E159">
-        <v>4.246577684095066</v>
+        <v>4.165048218146443</v>
       </c>
       <c r="F159">
-        <v>4.181099437231695</v>
+        <v>4.127560206281937</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>4.220916158735574</v>
+        <v>4.092169211921969</v>
       </c>
       <c r="C160">
-        <v>4.172352595024268</v>
+        <v>4.133281159749571</v>
       </c>
       <c r="D160">
-        <v>4.116692024083212</v>
+        <v>4.158292270330606</v>
       </c>
       <c r="E160">
-        <v>4.227069878287677</v>
+        <v>4.145131574144723</v>
       </c>
       <c r="F160">
-        <v>4.163961946500009</v>
+        <v>4.111838065349918</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>4.200725349176979</v>
+        <v>4.073127407902988</v>
       </c>
       <c r="C161">
-        <v>4.153007298491335</v>
+        <v>4.11409242590373</v>
       </c>
       <c r="D161">
-        <v>4.103294413702113</v>
+        <v>4.138293788943453</v>
       </c>
       <c r="E161">
-        <v>4.207483894232382</v>
+        <v>4.125169626670186</v>
       </c>
       <c r="F161">
-        <v>4.146691059603449</v>
+        <v>4.09602210583153</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>4.180475603533405</v>
+        <v>4.054034357858127</v>
       </c>
       <c r="C162">
-        <v>4.133586054047165</v>
+        <v>4.094871290312463</v>
       </c>
       <c r="D162">
-        <v>4.089804574673084</v>
+        <v>4.11824976052998</v>
       </c>
       <c r="E162">
-        <v>4.187824239378017</v>
+        <v>4.105166732944591</v>
       </c>
       <c r="F162">
-        <v>4.129293006258854</v>
+        <v>4.080116607185892</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>4.160171344410037</v>
+        <v>4.034894027293329</v>
       </c>
       <c r="C163">
-        <v>4.114093524186644</v>
+        <v>4.075621469971364</v>
       </c>
       <c r="D163">
-        <v>4.076226923588801</v>
+        <v>4.098163787288214</v>
       </c>
       <c r="E163">
-        <v>4.168095213804058</v>
+        <v>4.085127047531408</v>
       </c>
       <c r="F163">
-        <v>4.111773798750705</v>
+        <v>4.064125687927847</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>4.139816802776753</v>
+        <v>4.015710198783754</v>
       </c>
       <c r="C164">
-        <v>4.094534179925233</v>
+        <v>4.056346525810246</v>
       </c>
       <c r="D164">
-        <v>4.06256570900621</v>
+        <v>4.078039297687615</v>
       </c>
       <c r="E164">
-        <v>4.148300915416765</v>
+        <v>4.065054528045879</v>
       </c>
       <c r="F164">
-        <v>4.094139242246026</v>
+        <v>4.04805330529139</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>4.119416013205472</v>
+        <v>3.996486471731453</v>
       </c>
       <c r="C165">
-        <v>4.074912300469877</v>
+        <v>4.037049846269976</v>
       </c>
       <c r="D165">
-        <v>4.048825020896683</v>
+        <v>4.057879545929666</v>
       </c>
       <c r="E165">
-        <v>4.128445255314283</v>
+        <v>4.044952940382759</v>
       </c>
       <c r="F165">
-        <v>4.07639493598051</v>
+        <v>4.031903267981685</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>4.098972827440365</v>
+        <v>3.977226275535017</v>
       </c>
       <c r="C166">
-        <v>4.05523198968764</v>
+        <v>4.017734646554401</v>
       </c>
       <c r="D166">
-        <v>4.035008776996423</v>
+        <v>4.037687641780907</v>
       </c>
       <c r="E166">
-        <v>4.108531960568025</v>
+        <v>4.024825878180967</v>
       </c>
       <c r="F166">
-        <v>4.058546287186658</v>
+        <v>4.015679234836646</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>4.078490927385737</v>
+        <v>3.957932877864248</v>
       </c>
       <c r="C167">
-        <v>4.035497175830589</v>
+        <v>3.998404004430165</v>
       </c>
       <c r="D167">
-        <v>4.021120755393796</v>
+        <v>4.017466535849791</v>
       </c>
       <c r="E167">
-        <v>4.088564587764073</v>
+        <v>4.004676757145334</v>
       </c>
       <c r="F167">
-        <v>4.040598512761227</v>
+        <v>3.999384726466259</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>4.057973821934923</v>
+        <v>3.938609389072793</v>
       </c>
       <c r="C168">
-        <v>4.015711626641813</v>
+        <v>3.979060840930349</v>
       </c>
       <c r="D168">
-        <v>4.007164583753914</v>
+        <v>3.997219043945357</v>
       </c>
       <c r="E168">
-        <v>4.068546524807148</v>
+        <v>3.984508839790446</v>
       </c>
       <c r="F168">
-        <v>4.022556645648039</v>
+        <v>3.983023126155735</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>4.037424870540361</v>
+        <v>3.919258775820945</v>
       </c>
       <c r="C169">
-        <v>3.995878949058809</v>
+        <v>3.959707943079069</v>
       </c>
       <c r="D169">
-        <v>3.993143741330822</v>
+        <v>3.976947848018264</v>
       </c>
       <c r="E169">
-        <v>4.048481011266555</v>
+        <v>3.964325226957931</v>
       </c>
       <c r="F169">
-        <v>4.004425545467591</v>
+        <v>3.966597686699905</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>4.016847272124</v>
+        <v>3.899883860362666</v>
       </c>
       <c r="C170">
-        <v>3.97600260310469</v>
+        <v>3.940347970602827</v>
       </c>
       <c r="D170">
-        <v>3.979061580652722</v>
+        <v>3.956655490054467</v>
       </c>
       <c r="E170">
-        <v>4.028371131912156</v>
+        <v>3.944128880944226</v>
       </c>
       <c r="F170">
-        <v>3.986209896687847</v>
+        <v>3.950111536101999</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3.996244090529702</v>
+        <v>3.880487336500678</v>
       </c>
       <c r="C171">
-        <v>3.95608590157875</v>
+        <v>3.92098344938074</v>
       </c>
       <c r="D171">
-        <v>3.964921318664994</v>
+        <v>3.936344405113237</v>
       </c>
       <c r="E171">
-        <v>4.008219828648893</v>
+        <v>3.923922618982801</v>
       </c>
       <c r="F171">
-        <v>3.96791422373948</v>
+        <v>3.933567679608129</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>3.975618246614423</v>
+        <v>3.861071766184964</v>
       </c>
       <c r="C172">
-        <v>3.936132022804608</v>
+        <v>3.901616798722689</v>
       </c>
       <c r="D172">
-        <v>3.950726044991593</v>
+        <v>3.916016900526285</v>
       </c>
       <c r="E172">
-        <v>3.988029924558842</v>
+        <v>3.903709130671496</v>
       </c>
       <c r="F172">
-        <v>3.94954288878387</v>
+        <v>3.916969008488544</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3.954972532566388</v>
+        <v>3.841639596111513</v>
       </c>
       <c r="C173">
-        <v>3.916144010354867</v>
+        <v>3.882250316529213</v>
       </c>
       <c r="D173">
-        <v>3.936478733930875</v>
+        <v>3.895675178044029</v>
       </c>
       <c r="E173">
-        <v>3.967804090932445</v>
+        <v>3.883490978320444</v>
       </c>
       <c r="F173">
-        <v>3.93110010154916</v>
+        <v>3.900318299212824</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3.934309616990272</v>
+        <v>3.822193152965074</v>
       </c>
       <c r="C174">
-        <v>3.896124784535506</v>
+        <v>3.862886192234801</v>
       </c>
       <c r="D174">
-        <v>3.922182236943103</v>
+        <v>3.875321336192647</v>
       </c>
       <c r="E174">
-        <v>3.947544889322492</v>
+        <v>3.863270604226722</v>
       </c>
       <c r="F174">
-        <v>3.91258992451781</v>
+        <v>3.883618223685334</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3.913632046259233</v>
+        <v>3.802734659587097</v>
       </c>
       <c r="C175">
-        <v>3.876077139434098</v>
+        <v>3.84352652208484</v>
       </c>
       <c r="D175">
-        <v>3.907839297901611</v>
+        <v>3.854957365642058</v>
       </c>
       <c r="E175">
-        <v>3.927254775091552</v>
+        <v>3.843050339903365</v>
       </c>
       <c r="F175">
-        <v>3.894016274306888</v>
+        <v>3.866871347017344</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>3.892942258495921</v>
+        <v>3.783266230387558</v>
       </c>
       <c r="C176">
-        <v>3.856003760231637</v>
+        <v>3.824173291965886</v>
       </c>
       <c r="D176">
-        <v>3.893452555027499</v>
+        <v>3.834585171140821</v>
       </c>
       <c r="E176">
-        <v>3.906936063412852</v>
+        <v>3.82283240480152</v>
       </c>
       <c r="F176">
-        <v>3.875382933466988</v>
+        <v>3.85008013765897</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3.872242578121937</v>
+        <v>3.763789884994324</v>
       </c>
       <c r="C177">
-        <v>3.835907223461849</v>
+        <v>3.804828406808937</v>
       </c>
       <c r="D177">
-        <v>3.879024535351333</v>
+        <v>3.814206560634282</v>
       </c>
       <c r="E177">
-        <v>3.886590989996436</v>
+        <v>3.80261892078897</v>
       </c>
       <c r="F177">
-        <v>3.856693546812921</v>
+        <v>3.833246966407724</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3.85153523268802</v>
+        <v>3.744307546775706</v>
       </c>
       <c r="C178">
-        <v>3.815789986005613</v>
+        <v>3.785493678752319</v>
       </c>
       <c r="D178">
-        <v>3.864557675416792</v>
+        <v>3.793823258880063</v>
       </c>
       <c r="E178">
-        <v>3.866221683102308</v>
+        <v>3.782411906717554</v>
       </c>
       <c r="F178">
-        <v>3.837951634765328</v>
+        <v>3.816374112663128</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>3.830822346599608</v>
+        <v>3.724821050958862</v>
       </c>
       <c r="C179">
-        <v>3.795654423159046</v>
+        <v>3.766170832817526</v>
       </c>
       <c r="D179">
-        <v>3.850054313405918</v>
+        <v>3.773436910945978</v>
       </c>
       <c r="E179">
-        <v>3.845830163443822</v>
+        <v>3.762213294099853</v>
       </c>
       <c r="F179">
-        <v>3.819160591949591</v>
+        <v>3.799463767696087</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>3.810105954428744</v>
+        <v>3.705332148092025</v>
       </c>
       <c r="C180">
-        <v>3.775502813503058</v>
+        <v>3.74686152164171</v>
       </c>
       <c r="D180">
-        <v>3.835516691772411</v>
+        <v>3.753049078570976</v>
       </c>
       <c r="E180">
-        <v>3.825418374639927</v>
+        <v>3.742024921140804</v>
       </c>
       <c r="F180">
-        <v>3.800323692862249</v>
+        <v>3.78251803660005</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>3.789388000574772</v>
+        <v>3.68584250715588</v>
       </c>
       <c r="C181">
-        <v>3.75533731633766</v>
+        <v>3.727567314583174</v>
       </c>
       <c r="D181">
-        <v>3.820946971865003</v>
+        <v>3.732661257143313</v>
       </c>
       <c r="E181">
-        <v>3.804988167998419</v>
+        <v>3.721848546431497</v>
       </c>
       <c r="F181">
-        <v>3.781444099228716</v>
+        <v>3.765538944417941</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3.768670343460916</v>
+        <v>3.666353722131304</v>
       </c>
       <c r="C182">
-        <v>3.735160033551767</v>
+        <v>3.708289714916974</v>
       </c>
       <c r="D182">
-        <v>3.806347225774925</v>
+        <v>3.712274866609905</v>
       </c>
       <c r="E182">
-        <v>3.784541307532309</v>
+        <v>3.701685846400294</v>
       </c>
       <c r="F182">
-        <v>3.762524858267988</v>
+        <v>3.74852843558538</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3.747954763482794</v>
+        <v>3.646867312069053</v>
       </c>
       <c r="C183">
-        <v>3.71497297767343</v>
+        <v>3.689030156572469</v>
       </c>
       <c r="D183">
-        <v>3.791719444710612</v>
+        <v>3.691891262273531</v>
       </c>
       <c r="E183">
-        <v>3.764079487761474</v>
+        <v>3.681538422311092</v>
       </c>
       <c r="F183">
-        <v>3.743568913876234</v>
+        <v>3.73148838135767</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>3.727242960280447</v>
+        <v>3.627384729228967</v>
       </c>
       <c r="C184">
-        <v>3.694778057353867</v>
+        <v>3.669790004396051</v>
       </c>
       <c r="D184">
-        <v>3.777065545841418</v>
+        <v>3.671511738420491</v>
       </c>
       <c r="E184">
-        <v>3.743604322955503</v>
+        <v>3.661407804298463</v>
       </c>
       <c r="F184">
-        <v>3.72457910390448</v>
+        <v>3.714420578054149</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>3.706536564402038</v>
+        <v>3.60790735741292</v>
       </c>
       <c r="C185">
-        <v>3.674577128503038</v>
+        <v>3.650570568010682</v>
       </c>
       <c r="D185">
-        <v>3.762387365220938</v>
+        <v>3.65113752358847</v>
       </c>
       <c r="E185">
-        <v>3.723117356877535</v>
+        <v>3.641295452196781</v>
       </c>
       <c r="F185">
-        <v>3.705558168220918</v>
+        <v>3.697326754577354</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3.685837132109592</v>
+        <v>3.588436520671461</v>
       </c>
       <c r="C186">
-        <v>3.654371968164559</v>
+        <v>3.631373092870257</v>
       </c>
       <c r="D186">
-        <v>3.747686672417193</v>
+        <v>3.630769795481</v>
       </c>
       <c r="E186">
-        <v>3.70262007215148</v>
+        <v>3.621202763433468</v>
       </c>
       <c r="F186">
-        <v>3.68650875126173</v>
+        <v>3.680208569417047</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3.66514615694935</v>
+        <v>3.568973480805959</v>
       </c>
       <c r="C187">
-        <v>3.634164269818904</v>
+        <v>3.612198771102367</v>
       </c>
       <c r="D187">
-        <v>3.732965167464965</v>
+        <v>3.610409673304025</v>
       </c>
       <c r="E187">
-        <v>3.682113876657984</v>
+        <v>3.60113107055178</v>
       </c>
       <c r="F187">
-        <v>3.667433403203084</v>
+        <v>3.663067619061723</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>3.644465066834327</v>
+        <v>3.549519445933317</v>
       </c>
       <c r="C188">
-        <v>3.613955672798345</v>
+        <v>3.593048743494162</v>
       </c>
       <c r="D188">
-        <v>3.718224479757904</v>
+        <v>3.590058225590502</v>
       </c>
       <c r="E188">
-        <v>3.6616001242387</v>
+        <v>3.581081650686199</v>
       </c>
       <c r="F188">
-        <v>3.648334588290015</v>
+        <v>3.645905440391087</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3.623795229620937</v>
+        <v>3.53007556516578</v>
       </c>
       <c r="C189">
-        <v>3.593747749933606</v>
+        <v>3.573924095041467</v>
       </c>
       <c r="D189">
-        <v>3.703466180896062</v>
+        <v>3.569716473857775</v>
       </c>
       <c r="E189">
-        <v>3.641080112741284</v>
+        <v>3.561055721773069</v>
       </c>
       <c r="F189">
-        <v>3.629214681650625</v>
+        <v>3.628723508042345</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3.603137956739994</v>
+        <v>3.51064294198744</v>
       </c>
       <c r="C190">
-        <v>3.573542003818674</v>
+        <v>3.554825868735566</v>
       </c>
       <c r="D190">
-        <v>3.688691778913567</v>
+        <v>3.549385388920523</v>
       </c>
       <c r="E190">
-        <v>3.620555071958326</v>
+        <v>3.541054451764063</v>
       </c>
       <c r="F190">
-        <v>3.610075979080724</v>
+        <v>3.611523235925939</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3.582494502800461</v>
+        <v>3.491222632653892</v>
       </c>
       <c r="C191">
-        <v>3.55333988698371</v>
+        <v>3.5357550585342</v>
       </c>
       <c r="D191">
-        <v>3.673902721547595</v>
+        <v>3.529065901821069</v>
       </c>
       <c r="E191">
-        <v>3.600026190575563</v>
+        <v>3.521078956058943</v>
       </c>
       <c r="F191">
-        <v>3.590920695303611</v>
+        <v>3.594305994144761</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3.561866072936696</v>
+        <v>3.471815640159918</v>
       </c>
       <c r="C192">
-        <v>3.533142795481136</v>
+        <v>3.516712614930007</v>
       </c>
       <c r="D192">
-        <v>3.659100404668939</v>
+        <v>3.508758898783653</v>
       </c>
       <c r="E192">
-        <v>3.579494603538484</v>
+        <v>3.501130303209857</v>
       </c>
       <c r="F192">
-        <v>3.571750968369106</v>
+        <v>3.577073099150068</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>3.541253819661904</v>
+        <v>3.452422929108489</v>
       </c>
       <c r="C193">
-        <v>3.512952064867378</v>
+        <v>3.49769945004684</v>
       </c>
       <c r="D193">
-        <v>3.644286166282272</v>
+        <v>3.488465226600749</v>
       </c>
       <c r="E193">
-        <v>3.558961393709835</v>
+        <v>3.481209516238406</v>
       </c>
       <c r="F193">
-        <v>3.552568864206435</v>
+        <v>3.559825797270088</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>3.520658851076567</v>
+        <v>3.433045429106234</v>
       </c>
       <c r="C194">
-        <v>3.492768986705757</v>
+        <v>3.478716432334699</v>
       </c>
       <c r="D194">
-        <v>3.629461294310345</v>
+        <v>3.468185695971784</v>
       </c>
       <c r="E194">
-        <v>3.538427604096637</v>
+        <v>3.461317574194105</v>
       </c>
       <c r="F194">
-        <v>3.533376375471288</v>
+        <v>3.542565310067453</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3.500082228174008</v>
+        <v>3.413684021944465</v>
       </c>
       <c r="C195">
-        <v>3.472594804489322</v>
+        <v>3.459764397296297</v>
       </c>
       <c r="D195">
-        <v>3.614627028870999</v>
+        <v>3.447921078261096</v>
       </c>
       <c r="E195">
-        <v>3.517894232663739</v>
+        <v>3.441455415749803</v>
       </c>
       <c r="F195">
-        <v>3.514175429247777</v>
+        <v>3.525292807528605</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3.479524970211679</v>
+        <v>3.394339545608549</v>
       </c>
       <c r="C196">
-        <v>3.45243070481117</v>
+        <v>3.440844143294896</v>
       </c>
       <c r="D196">
-        <v>3.599784557977815</v>
+        <v>3.42767211434994</v>
       </c>
       <c r="E196">
-        <v>3.497362235797711</v>
+        <v>3.421623937639006</v>
       </c>
       <c r="F196">
-        <v>3.494967884651899</v>
+        <v>3.508009405545621</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3.458988054634909</v>
+        <v>3.37501281966488</v>
       </c>
       <c r="C197">
-        <v>3.432277838162141</v>
+        <v>3.421956433947969</v>
       </c>
       <c r="D197">
-        <v>3.584935028520408</v>
+        <v>3.407439510545112</v>
       </c>
       <c r="E197">
-        <v>3.476832534571846</v>
+        <v>3.401824004178581</v>
       </c>
       <c r="F197">
-        <v>3.475755538981091</v>
+        <v>3.490716179804174</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3.438472418828685</v>
+        <v>3.355704623396104</v>
       </c>
       <c r="C198">
-        <v>3.412137312913371</v>
+        <v>3.403102003899303</v>
       </c>
       <c r="D198">
-        <v>3.570079542337257</v>
+        <v>3.387223942537693</v>
       </c>
       <c r="E198">
-        <v>3.456306009160988</v>
+        <v>3.382056445673667</v>
       </c>
       <c r="F198">
-        <v>3.456540128600997</v>
+        <v>3.473414171854475</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>3.417978967294875</v>
+        <v>3.336415690854067</v>
       </c>
       <c r="C199">
-        <v>3.392010189254673</v>
+        <v>3.384281553845079</v>
       </c>
       <c r="D199">
-        <v>3.555219156892238</v>
+        <v>3.367026058501694</v>
       </c>
       <c r="E199">
-        <v>3.43578350566682</v>
+        <v>3.362322047696244</v>
       </c>
       <c r="F199">
-        <v>3.437323330194913</v>
+        <v>3.456104379460063</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>3.397508569786776</v>
+        <v>3.317146743055765</v>
       </c>
       <c r="C200">
-        <v>3.371897493778014</v>
+        <v>3.365495758595537</v>
       </c>
       <c r="D200">
-        <v>3.540354893037917</v>
+        <v>3.346846476105457</v>
       </c>
       <c r="E200">
-        <v>3.415265840642199</v>
+        <v>3.342621578431415</v>
       </c>
       <c r="F200">
-        <v>3.418106766063482</v>
+        <v>3.438787755785954</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>3.377062052414046</v>
+        <v>3.297898467965368</v>
       </c>
       <c r="C201">
-        <v>3.351800216841394</v>
+        <v>3.346745264937695</v>
       </c>
       <c r="D201">
-        <v>3.525487730858522</v>
+        <v>3.326685789652464</v>
       </c>
       <c r="E201">
-        <v>3.394753791846943</v>
+        <v>3.322955775324678</v>
       </c>
       <c r="F201">
-        <v>3.398892001985296</v>
+        <v>3.421465227043821</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3.356640223962083</v>
+        <v>3.278671515642107</v>
       </c>
       <c r="C202">
-        <v>3.331719307555149</v>
+        <v>3.32803069186134</v>
       </c>
       <c r="D202">
-        <v>3.510618613031743</v>
+        <v>3.306544566963944</v>
       </c>
       <c r="E202">
-        <v>3.374248112014279</v>
+        <v>3.303325338370372</v>
       </c>
       <c r="F202">
-        <v>3.379680553816078</v>
+        <v>3.40413768225567</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>3.336243861782001</v>
+        <v>3.259466521515418</v>
       </c>
       <c r="C203">
-        <v>3.311655684755691</v>
+        <v>3.309352636406894</v>
       </c>
       <c r="D203">
-        <v>3.495748449120829</v>
+        <v>3.286423352187222</v>
       </c>
       <c r="E203">
-        <v>3.353749525208692</v>
+        <v>3.283730939054807</v>
       </c>
       <c r="F203">
-        <v>3.360473884707697</v>
+        <v>3.386805970474751</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>3.315873704012505</v>
+        <v>3.240284093786434</v>
       </c>
       <c r="C204">
-        <v>3.291610236079433</v>
+        <v>3.290711669808355</v>
       </c>
       <c r="D204">
-        <v>3.480878111530854</v>
+        <v>3.266322668495814</v>
       </c>
       <c r="E204">
-        <v>3.333258724593472</v>
+        <v>3.264173236238765</v>
       </c>
       <c r="F204">
-        <v>3.341273410259348</v>
+        <v>3.369470914829238</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>3.295530464166714</v>
+        <v>3.221124815649311</v>
       </c>
       <c r="C205">
-        <v>3.271583814295117</v>
+        <v>3.27210834205902</v>
       </c>
       <c r="D205">
-        <v>3.466008442173607</v>
+        <v>3.246243015684816</v>
       </c>
       <c r="E205">
-        <v>3.312776381529515</v>
+        <v>3.244652859314305</v>
       </c>
       <c r="F205">
-        <v>3.322080502302074</v>
+        <v>3.352133307373026</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>3.275214839922705</v>
+        <v>3.201989250229435</v>
       </c>
       <c r="C206">
-        <v>3.251577245117181</v>
+        <v>3.253543182545741</v>
       </c>
       <c r="D206">
-        <v>3.451140251950939</v>
+        <v>3.226184875665109</v>
       </c>
       <c r="E206">
-        <v>3.2923031419</v>
+        <v>3.225170400815037</v>
       </c>
       <c r="F206">
-        <v>3.302896488440964</v>
+        <v>3.334793908203364</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3.254927499708482</v>
+        <v>3.182877941870112</v>
       </c>
       <c r="C207">
-        <v>3.231591327561909</v>
+        <v>3.235016698574661</v>
       </c>
       <c r="D207">
-        <v>3.436274319143503</v>
+        <v>3.206148710210801</v>
       </c>
       <c r="E207">
-        <v>3.271839626981244</v>
+        <v>3.205726448502993</v>
       </c>
       <c r="F207">
-        <v>3.28372264364468</v>
+        <v>3.317453447990677</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3.234669075938907</v>
+        <v>3.163791411578508</v>
       </c>
       <c r="C208">
-        <v>3.211626830222147</v>
+        <v>3.216529380585923</v>
       </c>
       <c r="D208">
-        <v>3.421411396228609</v>
+        <v>3.186134962935787</v>
       </c>
       <c r="E208">
-        <v>3.25138643894255</v>
+        <v>3.186321564787468</v>
       </c>
       <c r="F208">
-        <v>3.264560215212998</v>
+        <v>3.300112634695108</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>3.214440195295729</v>
+        <v>3.144730159064931</v>
       </c>
       <c r="C209">
-        <v>3.191684498190326</v>
+        <v>3.198081699529779</v>
       </c>
       <c r="D209">
-        <v>3.406552206981655</v>
+        <v>3.16614406146864</v>
       </c>
       <c r="E209">
-        <v>3.230944157810256</v>
+        <v>3.166956285457593</v>
       </c>
       <c r="F209">
-        <v>3.245410409100217</v>
+        <v>3.282772148849188</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>3.19424145906311</v>
+        <v>3.125694673530035</v>
       </c>
       <c r="C210">
-        <v>3.171765053900095</v>
+        <v>3.179674109170703</v>
       </c>
       <c r="D210">
-        <v>3.391697447578125</v>
+        <v>3.146176413916637</v>
       </c>
       <c r="E210">
-        <v>3.210513343394629</v>
+        <v>3.147631132044276</v>
       </c>
       <c r="F210">
-        <v>3.22627438724129</v>
+        <v>3.265432637799081</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3.174073442266232</v>
+        <v>3.10668542479381</v>
       </c>
       <c r="C211">
-        <v>3.151869193222177</v>
+        <v>3.161307047869515</v>
       </c>
       <c r="D211">
-        <v>3.376847791070583</v>
+        <v>3.126232417075731</v>
       </c>
       <c r="E211">
-        <v>3.190094539561035</v>
+        <v>3.12834660990457</v>
       </c>
       <c r="F211">
-        <v>3.207153270372185</v>
+        <v>3.248094734564449</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>3.153936704715096</v>
+        <v>3.087702862844933</v>
       </c>
       <c r="C212">
-        <v>3.131997591500385</v>
+        <v>3.142980934968191</v>
       </c>
       <c r="D212">
-        <v>3.362003884515054</v>
+        <v>3.106312453423101</v>
       </c>
       <c r="E212">
-        <v>3.169688270088524</v>
+        <v>3.109103206154786</v>
       </c>
       <c r="F212">
-        <v>3.188048158137679</v>
+        <v>3.230759046644711</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>3.133831790383092</v>
+        <v>3.068747428729559</v>
       </c>
       <c r="C213">
-        <v>3.112150904869292</v>
+        <v>3.124696179048343</v>
       </c>
       <c r="D213">
-        <v>3.347166352054742</v>
+        <v>3.086416891100268</v>
       </c>
       <c r="E213">
-        <v>3.149295043190837</v>
+        <v>3.089901391214153</v>
       </c>
       <c r="F213">
-        <v>3.16896011316287</v>
+        <v>3.213426155201817</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3.113759224881687</v>
+        <v>3.0498195483754</v>
       </c>
       <c r="C214">
-        <v>3.092329766403786</v>
+        <v>3.106453174672632</v>
       </c>
       <c r="D214">
-        <v>3.332335796729155</v>
+        <v>3.066546079847355</v>
       </c>
       <c r="E214">
-        <v>3.128915352911849</v>
+        <v>3.070741623527617</v>
       </c>
       <c r="F214">
-        <v>3.149890152039707</v>
+        <v>3.196096622312228</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>3.093719516418445</v>
+        <v>3.030919627841402</v>
       </c>
       <c r="C215">
-        <v>3.072534791165549</v>
+        <v>3.088252302771159</v>
       </c>
       <c r="D215">
-        <v>3.317512797871851</v>
+        <v>3.046700367420384</v>
       </c>
       <c r="E215">
-        <v>3.108549675524538</v>
+        <v>3.051624347621128</v>
       </c>
       <c r="F215">
-        <v>3.130839272960165</v>
+        <v>3.178770991373447</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>3.073713161480256</v>
+        <v>3.012048067730984</v>
       </c>
       <c r="C216">
-        <v>3.052766577913077</v>
+        <v>3.07009392532657</v>
       </c>
       <c r="D216">
-        <v>3.302697916518993</v>
+        <v>3.026880088734607</v>
       </c>
       <c r="E216">
-        <v>3.088198476057951</v>
+        <v>3.032549984913628</v>
       </c>
       <c r="F216">
-        <v>3.111808443515357</v>
+        <v>3.161449784148241</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>3.053740642435622</v>
+        <v>2.993205255106235</v>
       </c>
       <c r="C217">
-        <v>3.033025705713365</v>
+        <v>3.05197840285934</v>
       </c>
       <c r="D217">
-        <v>3.287891693584988</v>
+        <v>3.007085563202809</v>
       </c>
       <c r="E217">
-        <v>3.067862206063559</v>
+        <v>3.013518954893436</v>
       </c>
       <c r="F217">
-        <v>3.092798600344296</v>
+        <v>3.144133500569119</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>3.033802420302305</v>
+        <v>2.97439156372893</v>
       </c>
       <c r="C218">
-        <v>3.013312737838179</v>
+        <v>3.033906082881832</v>
       </c>
       <c r="D218">
-        <v>3.273094649847787</v>
+        <v>2.987317094491609</v>
       </c>
       <c r="E218">
-        <v>3.047541303131025</v>
+        <v>2.994531662332349</v>
       </c>
       <c r="F218">
-        <v>3.073810646494409</v>
+        <v>3.126822627088347</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>3.013898950434792</v>
+        <v>2.955607358244227</v>
       </c>
       <c r="C219">
-        <v>2.993628223672425</v>
+        <v>3.015877299043221</v>
       </c>
       <c r="D219">
-        <v>3.258307289911363</v>
+        <v>2.967574990457937</v>
       </c>
       <c r="E219">
-        <v>3.027236195342941</v>
+        <v>2.975588498262825</v>
       </c>
       <c r="F219">
-        <v>3.054845467404566</v>
+        <v>3.109517631629019</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2.994030676048212</v>
+        <v>2.936852994477191</v>
       </c>
       <c r="C220">
-        <v>2.973972695901752</v>
+        <v>2.997892366110954</v>
       </c>
       <c r="D220">
-        <v>3.243530100208685</v>
+        <v>2.947859546175847</v>
       </c>
       <c r="E220">
-        <v>3.006947299262846</v>
+        <v>2.956689843133533</v>
       </c>
       <c r="F220">
-        <v>3.035903920828015</v>
+        <v>3.092218961761842</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>2.974198026999052</v>
+        <v>2.918128817330123</v>
       </c>
       <c r="C221">
-        <v>2.954346673489674</v>
+        <v>2.979951604771915</v>
       </c>
       <c r="D221">
-        <v>3.228763550224121</v>
+        <v>2.928171042211817</v>
       </c>
       <c r="E221">
-        <v>2.98667502045056</v>
+        <v>2.937836070051702</v>
       </c>
       <c r="F221">
-        <v>3.016986836551361</v>
+        <v>3.074927053110868</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>2.954401420471419</v>
+        <v>2.899435162165503</v>
       </c>
       <c r="C222">
-        <v>2.934750663659598</v>
+        <v>2.962055322120172</v>
       </c>
       <c r="D222">
-        <v>3.214008094867861</v>
+        <v>2.908509751570966</v>
       </c>
       <c r="E222">
-        <v>2.966419756527468</v>
+        <v>2.919027541044786</v>
       </c>
       <c r="F222">
-        <v>2.998095022365136</v>
+        <v>3.057642325211137</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>2.934641267840347</v>
+        <v>2.880772358753356</v>
       </c>
       <c r="C223">
-        <v>2.915185159487612</v>
+        <v>2.944203812483401</v>
       </c>
       <c r="D223">
-        <v>3.199264172570377</v>
+        <v>2.888875946508096</v>
       </c>
       <c r="E223">
-        <v>2.946181895288121</v>
+        <v>2.900264604450247</v>
       </c>
       <c r="F223">
-        <v>2.979229266515986</v>
+        <v>3.040365181120946</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>2.914917970162648</v>
+        <v>2.86214072818456</v>
       </c>
       <c r="C224">
-        <v>2.895650642231418</v>
+        <v>2.926397358322346</v>
       </c>
       <c r="D224">
-        <v>3.184532207927674</v>
+        <v>2.869269890016692</v>
       </c>
       <c r="E224">
-        <v>2.925961816088791</v>
+        <v>2.881547605814249</v>
       </c>
       <c r="F224">
-        <v>2.960390335040707</v>
+        <v>3.023096009591361</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>2.895231913463709</v>
+        <v>2.843540582495462</v>
       </c>
       <c r="C225">
-        <v>2.876147583354339</v>
+        <v>2.908636243507472</v>
       </c>
       <c r="D225">
-        <v>3.169812612026159</v>
+        <v>2.849691834069886</v>
       </c>
       <c r="E225">
-        <v>2.905759891733312</v>
+        <v>2.86287688097174</v>
       </c>
       <c r="F225">
-        <v>2.941578968331584</v>
+        <v>3.005835188090218</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>2.875583481969596</v>
+        <v>2.824972229918465</v>
       </c>
       <c r="C226">
-        <v>2.856676442327168</v>
+        <v>2.890920741404934</v>
       </c>
       <c r="D226">
-        <v>3.155105781302079</v>
+        <v>2.830142027628596</v>
       </c>
       <c r="E226">
-        <v>2.885576486560816</v>
+        <v>2.844252755967844</v>
       </c>
       <c r="F226">
-        <v>2.922795893769836</v>
+        <v>2.988583080119043</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>2.855973050256249</v>
+        <v>2.806435971970209</v>
       </c>
       <c r="C227">
-        <v>2.837237668495377</v>
+        <v>2.873251115281606</v>
       </c>
       <c r="D227">
-        <v>3.14041210083708</v>
+        <v>2.810620715446202</v>
       </c>
       <c r="E227">
-        <v>2.865411958983698</v>
+        <v>2.825675551383904</v>
       </c>
       <c r="F227">
-        <v>2.904041818646904</v>
+        <v>2.971340033968586</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>2.836400984388517</v>
+        <v>2.787932101274447</v>
       </c>
       <c r="C228">
-        <v>2.817831703163443</v>
+        <v>2.855627621621915</v>
       </c>
       <c r="D228">
-        <v>3.12573194306214</v>
+        <v>2.791128136478311</v>
       </c>
       <c r="E228">
-        <v>2.845266661770845</v>
+        <v>2.807145581399902</v>
       </c>
       <c r="F228">
-        <v>2.885317429664262</v>
+        <v>2.954106389608338</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>2.816867643152465</v>
+        <v>2.769460908556728</v>
       </c>
       <c r="C229">
-        <v>2.798458977528447</v>
+        <v>2.838050514132584</v>
       </c>
       <c r="D229">
-        <v>3.11106566805648</v>
+        <v>2.771664523990887</v>
       </c>
       <c r="E229">
-        <v>2.825140940691961</v>
+        <v>2.788663152621119</v>
       </c>
       <c r="F229">
-        <v>2.866623393663283</v>
+        <v>2.936882474764927</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>2.797373380803704</v>
+        <v>2.751022678814141</v>
       </c>
       <c r="C230">
-        <v>2.779119914169716</v>
+        <v>2.820520039304505</v>
       </c>
       <c r="D230">
-        <v>3.096413625807529</v>
+        <v>2.752230108559038</v>
       </c>
       <c r="E230">
-        <v>2.805035137717592</v>
+        <v>2.770228564347402</v>
       </c>
       <c r="F230">
-        <v>2.847960367057419</v>
+        <v>2.919668603583751</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>2.77791854504028</v>
+        <v>2.732617690816467</v>
       </c>
       <c r="C231">
-        <v>2.759814929136912</v>
+        <v>2.803036437271299</v>
       </c>
       <c r="D231">
-        <v>3.081776154888477</v>
+        <v>2.732825117070716</v>
       </c>
       <c r="E231">
-        <v>2.784949589814242</v>
+        <v>2.751842112805988</v>
       </c>
       <c r="F231">
-        <v>2.829328988723832</v>
+        <v>2.902465081577012</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>2.758503474993602</v>
+        <v>2.714246220083651</v>
       </c>
       <c r="C232">
-        <v>2.740544430067464</v>
+        <v>2.785599943640351</v>
       </c>
       <c r="D232">
-        <v>3.067153583620962</v>
+        <v>2.713449772962039</v>
       </c>
       <c r="E232">
-        <v>2.764884628935072</v>
+        <v>2.733504088228294</v>
       </c>
       <c r="F232">
-        <v>2.810729877509529</v>
+        <v>2.885272204581763</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>2.739128508242985</v>
+        <v>2.695908538806227</v>
       </c>
       <c r="C233">
-        <v>2.721308817348291</v>
+        <v>2.768210789943356</v>
       </c>
       <c r="D233">
-        <v>3.052546231185041</v>
+        <v>2.694104289535209</v>
       </c>
       <c r="E233">
-        <v>2.744840584212608</v>
+        <v>2.715214773504083</v>
       </c>
       <c r="F233">
-        <v>2.79216364197239</v>
+        <v>2.868090257670304</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>2.719793976750858</v>
+        <v>2.677604914561538</v>
       </c>
       <c r="C234">
-        <v>2.702108486125338</v>
+        <v>2.750869203333653</v>
       </c>
       <c r="D234">
-        <v>3.037954406405392</v>
+        <v>2.674788885495872</v>
       </c>
       <c r="E234">
-        <v>2.724817780950486</v>
+        <v>2.69697444963591</v>
       </c>
       <c r="F234">
-        <v>2.773630876861463</v>
+        <v>2.850919515551129</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>2.700500206750155</v>
+        <v>2.659335611208048</v>
       </c>
       <c r="C235">
-        <v>2.682943824659828</v>
+        <v>2.733575400828189</v>
       </c>
       <c r="D235">
-        <v>3.023378409913519</v>
+        <v>2.655503774389991</v>
       </c>
       <c r="E235">
-        <v>2.704816541049184</v>
+        <v>2.678783392685544</v>
       </c>
       <c r="F235">
-        <v>2.755132162570824</v>
+        <v>2.833760246060361</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>2.681247520819936</v>
+        <v>2.64110089093795</v>
       </c>
       <c r="C236">
-        <v>2.663815215215927</v>
+        <v>2.716329599890295</v>
       </c>
       <c r="D236">
-        <v>3.008818533732164</v>
+        <v>2.636249167145113</v>
       </c>
       <c r="E236">
-        <v>2.684837184500313</v>
+        <v>2.660641873100408</v>
       </c>
       <c r="F236">
-        <v>2.736668063340832</v>
+        <v>2.816612707928373</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>2.662036239038335</v>
+        <v>2.622901012637944</v>
       </c>
       <c r="C237">
-        <v>2.644723035936446</v>
+        <v>2.699132014478092</v>
       </c>
       <c r="D237">
-        <v>2.994275060975337</v>
+        <v>2.617025270623511</v>
       </c>
       <c r="E237">
-        <v>2.66488002848131</v>
+        <v>2.642550157770239</v>
       </c>
       <c r="F237">
-        <v>2.718239135977177</v>
+        <v>2.799477149493164</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>2.642866677480633</v>
+        <v>2.604736231776156</v>
       </c>
       <c r="C238">
-        <v>2.625667659435879</v>
+        <v>2.681982854260458</v>
       </c>
       <c r="D238">
-        <v>2.979748267775745</v>
+        <v>2.597832292918415</v>
       </c>
       <c r="E238">
-        <v>2.64494538825508</v>
+        <v>2.624508511240264</v>
       </c>
       <c r="F238">
-        <v>2.699845924364244</v>
+        <v>2.782353813710444</v>
       </c>
     </row>
   </sheetData>
